--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/CONG_TAC.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/CONG_TAC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ta Quang Ngoc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roo\Desktop\HRM-DVMD\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NHAP_LIEU" sheetId="9" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>MA_NHAN_VIEN</t>
   </si>
@@ -453,7 +453,10 @@
     <t>LOAI_QUYET_DINH</t>
   </si>
   <si>
-    <t>0145</t>
+    <t>100055</t>
+  </si>
+  <si>
+    <t>100056</t>
   </si>
 </sst>
 </file>
@@ -804,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -817,6 +820,7 @@
     <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -847,20 +851,43 @@
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42370</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42370</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="E3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42371</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25"/>
@@ -1905,8 +1932,8 @@
   </sheetPr>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1001"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1947,61 +1974,61 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>NHAP_LIEU!A2&amp;""</f>
-        <v>0145</v>
+        <v>100055</v>
       </c>
       <c r="B2" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B2,THAM_SO!B3:C6,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C2" t="str">
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B2,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C2">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!C2,THAM_SO!$F$3:$G$25,2,FALSE),"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!D2,THAM_SO!$I$3:$J$62,2,FALSE),"")</f>
         <v>552</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!E2,THAM_SO!$B$12:$C$14,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="2" t="str">
+        <v>157</v>
+      </c>
+      <c r="F2" s="2">
         <f>IF(ISBLANK(NHAP_LIEU!F2)," ",NHAP_LIEU!F2)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G2" s="2" t="str">
+        <v>42370</v>
+      </c>
+      <c r="G2" s="2">
         <f>IF(ISBLANK(NHAP_LIEU!G2)," ",NHAP_LIEU!G2)</f>
-        <v xml:space="preserve"> </v>
+        <v>42370</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>NHAP_LIEU!A3&amp;""</f>
-        <v/>
+        <v>100056</v>
       </c>
       <c r="B3" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B3,THAM_SO!B4:C7,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C3" t="str">
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B3,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C3">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!C3,THAM_SO!$F$3:$G$25,2,FALSE),"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!D3,THAM_SO!$I$3:$J$62,2,FALSE),"")</f>
         <v>552</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!E3,THAM_SO!$B$12:$C$14,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="2" t="str">
+        <v>164</v>
+      </c>
+      <c r="F3" s="2">
         <f>IF(ISBLANK(NHAP_LIEU!F3)," ",NHAP_LIEU!F3)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G3" s="2" t="str">
+        <v>42371</v>
+      </c>
+      <c r="G3" s="2">
         <f>IF(ISBLANK(NHAP_LIEU!G3)," ",NHAP_LIEU!G3)</f>
-        <v xml:space="preserve"> </v>
+        <v>42371</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,16 +2037,16 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B4,THAM_SO!B5:C8,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B4,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C4" t="str">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!C4,THAM_SO!$F$3:$G$25,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D4">
+      <c r="D4" t="str">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!D4,THAM_SO!$I$3:$J$62,2,FALSE),"")</f>
-        <v>552</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IFERROR(VLOOKUP(NHAP_LIEU!E4,THAM_SO!$B$12:$C$14,2,FALSE),"")</f>
@@ -2040,7 +2067,7 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B5,THAM_SO!B6:C9,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B5,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C5" t="str">
@@ -2070,7 +2097,7 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B6,THAM_SO!B7:C10,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B6,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C6" t="str">
@@ -2100,7 +2127,7 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B7,THAM_SO!B8:C11,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B7,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C7" t="str">
@@ -2130,7 +2157,7 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B8,THAM_SO!B9:C12,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B8,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C8" t="str">
@@ -2160,7 +2187,7 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B9,THAM_SO!B10:C13,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B9,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C9" t="str">
@@ -2190,7 +2217,7 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B10,THAM_SO!B11:C14,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B10,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C10" t="str">
@@ -2220,7 +2247,7 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B11,THAM_SO!B12:C15,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B11,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C11" t="str">
@@ -2250,7 +2277,7 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B12,THAM_SO!B13:C16,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B12,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C12" t="str">
@@ -2280,7 +2307,7 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B13,THAM_SO!B14:C17,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B13,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C13" t="str">
@@ -2310,7 +2337,7 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B14,THAM_SO!B15:C18,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B14,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C14" t="str">
@@ -2340,7 +2367,7 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B15,THAM_SO!B16:C19,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B15,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C15" t="str">
@@ -2370,7 +2397,7 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B16,THAM_SO!B17:C20,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B16,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C16" t="str">
@@ -2400,7 +2427,7 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B17,THAM_SO!B18:C21,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B17,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C17" t="str">
@@ -2430,7 +2457,7 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B18,THAM_SO!B19:C22,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B18,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C18" t="str">
@@ -2460,7 +2487,7 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B19,THAM_SO!B20:C23,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B19,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C19" t="str">
@@ -2490,7 +2517,7 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B20,THAM_SO!B21:C24,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B20,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C20" t="str">
@@ -2520,7 +2547,7 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B21,THAM_SO!B22:C25,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B21,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C21" t="str">
@@ -2550,7 +2577,7 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B22,THAM_SO!B23:C26,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B22,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C22" t="str">
@@ -2580,7 +2607,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B23,THAM_SO!B24:C27,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B23,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C23" t="str">
@@ -2610,7 +2637,7 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B24,THAM_SO!B25:C28,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B24,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C24" t="str">
@@ -2640,7 +2667,7 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B25,THAM_SO!B26:C29,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B25,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C25" t="str">
@@ -2670,7 +2697,7 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B26,THAM_SO!B27:C30,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B26,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C26" t="str">
@@ -2700,7 +2727,7 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B27,THAM_SO!B28:C31,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B27,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C27" t="str">
@@ -2730,7 +2757,7 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B28,THAM_SO!B29:C32,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B28,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C28" t="str">
@@ -2760,7 +2787,7 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B29,THAM_SO!B30:C33,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B29,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C29" t="str">
@@ -2790,7 +2817,7 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B30,THAM_SO!B31:C34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B30,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C30" t="str">
@@ -2820,7 +2847,7 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B31,THAM_SO!B32:C35,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B31,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C31" t="str">
@@ -2850,7 +2877,7 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B32,THAM_SO!B33:C36,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B32,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C32" t="str">
@@ -2880,7 +2907,7 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B33,THAM_SO!B34:C37,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B33,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C33" t="str">
@@ -2910,7 +2937,7 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B34,THAM_SO!B35:C38,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B34,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C34" t="str">
@@ -2940,7 +2967,7 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B35,THAM_SO!B36:C39,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B35,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C35" t="str">
@@ -2970,7 +2997,7 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B36,THAM_SO!B37:C40,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B36,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C36" t="str">
@@ -3000,7 +3027,7 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B37,THAM_SO!B38:C41,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B37,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C37" t="str">
@@ -3030,7 +3057,7 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B38,THAM_SO!B39:C42,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B38,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C38" t="str">
@@ -3060,7 +3087,7 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B39,THAM_SO!B40:C43,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B39,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C39" t="str">
@@ -3090,7 +3117,7 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B40,THAM_SO!B41:C44,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B40,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C40" t="str">
@@ -3120,7 +3147,7 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B41,THAM_SO!B42:C45,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B41,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C41" t="str">
@@ -3150,7 +3177,7 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B42,THAM_SO!B43:C46,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B42,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C42" t="str">
@@ -3180,7 +3207,7 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B43,THAM_SO!B44:C47,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B43,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C43" t="str">
@@ -3210,7 +3237,7 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B44,THAM_SO!B45:C48,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B44,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C44" t="str">
@@ -3240,7 +3267,7 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B45,THAM_SO!B46:C49,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B45,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C45" t="str">
@@ -3270,7 +3297,7 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B46,THAM_SO!B47:C50,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B46,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C46" t="str">
@@ -3300,7 +3327,7 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B47,THAM_SO!B48:C51,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B47,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C47" t="str">
@@ -3330,7 +3357,7 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B48,THAM_SO!B49:C52,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B48,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C48" t="str">
@@ -3360,7 +3387,7 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B49,THAM_SO!B50:C53,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B49,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C49" t="str">
@@ -3390,7 +3417,7 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B50,THAM_SO!B51:C54,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B50,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C50" t="str">
@@ -3420,7 +3447,7 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B51,THAM_SO!B52:C55,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B51,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C51" t="str">
@@ -3450,7 +3477,7 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B52,THAM_SO!B53:C56,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B52,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C52" t="str">
@@ -3480,7 +3507,7 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B53,THAM_SO!B54:C57,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B53,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C53" t="str">
@@ -3510,7 +3537,7 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B54,THAM_SO!B55:C58,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B54,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C54" t="str">
@@ -3540,7 +3567,7 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B55,THAM_SO!B56:C59,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B55,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C55" t="str">
@@ -3570,7 +3597,7 @@
         <v/>
       </c>
       <c r="B56" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B56,THAM_SO!B57:C60,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B56,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C56" t="str">
@@ -3600,7 +3627,7 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B57,THAM_SO!B58:C61,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B57,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C57" t="str">
@@ -3630,7 +3657,7 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B58,THAM_SO!B59:C62,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B58,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C58" t="str">
@@ -3660,7 +3687,7 @@
         <v/>
       </c>
       <c r="B59" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B59,THAM_SO!B60:C63,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B59,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C59" t="str">
@@ -3690,7 +3717,7 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B60,THAM_SO!B61:C64,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B60,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C60" t="str">
@@ -3720,7 +3747,7 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B61,THAM_SO!B62:C65,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B61,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C61" t="str">
@@ -3750,7 +3777,7 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B62,THAM_SO!B63:C66,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B62,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C62" t="str">
@@ -3780,7 +3807,7 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B63,THAM_SO!B64:C67,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B63,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C63" t="str">
@@ -3810,7 +3837,7 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B64,THAM_SO!B65:C68,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B64,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C64" t="str">
@@ -3840,7 +3867,7 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B65,THAM_SO!B66:C69,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B65,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C65" t="str">
@@ -3870,7 +3897,7 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B66,THAM_SO!B67:C70,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B66,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C66" t="str">
@@ -3900,7 +3927,7 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B67,THAM_SO!B68:C71,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B67,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C67" t="str">
@@ -3930,7 +3957,7 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B68,THAM_SO!B69:C72,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B68,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C68" t="str">
@@ -3960,7 +3987,7 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B69,THAM_SO!B70:C73,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B69,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C69" t="str">
@@ -3990,7 +4017,7 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B70,THAM_SO!B71:C74,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B70,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" t="str">
@@ -4020,7 +4047,7 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B71,THAM_SO!B72:C75,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B71,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C71" t="str">
@@ -4050,7 +4077,7 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B72,THAM_SO!B73:C76,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B72,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" t="str">
@@ -4080,7 +4107,7 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B73,THAM_SO!B74:C77,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B73,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" t="str">
@@ -4110,7 +4137,7 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B74,THAM_SO!B75:C78,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B74,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" t="str">
@@ -4140,7 +4167,7 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B75,THAM_SO!B76:C79,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B75,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" t="str">
@@ -4170,7 +4197,7 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B76,THAM_SO!B77:C80,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B76,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C76" t="str">
@@ -4200,7 +4227,7 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B77,THAM_SO!B78:C81,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B77,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" t="str">
@@ -4230,7 +4257,7 @@
         <v/>
       </c>
       <c r="B78" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B78,THAM_SO!B79:C82,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B78,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" t="str">
@@ -4260,7 +4287,7 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B79,THAM_SO!B80:C83,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B79,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" t="str">
@@ -4290,7 +4317,7 @@
         <v/>
       </c>
       <c r="B80" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B80,THAM_SO!B81:C84,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B80,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" t="str">
@@ -4320,7 +4347,7 @@
         <v/>
       </c>
       <c r="B81" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B81,THAM_SO!B82:C85,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B81,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C81" t="str">
@@ -4350,7 +4377,7 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B82,THAM_SO!B83:C86,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B82,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" t="str">
@@ -4380,7 +4407,7 @@
         <v/>
       </c>
       <c r="B83" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B83,THAM_SO!B84:C87,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B83,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" t="str">
@@ -4410,7 +4437,7 @@
         <v/>
       </c>
       <c r="B84" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B84,THAM_SO!B85:C88,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B84,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" t="str">
@@ -4440,7 +4467,7 @@
         <v/>
       </c>
       <c r="B85" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B85,THAM_SO!B86:C89,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B85,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C85" t="str">
@@ -4470,7 +4497,7 @@
         <v/>
       </c>
       <c r="B86" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B86,THAM_SO!B87:C90,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B86,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C86" t="str">
@@ -4500,7 +4527,7 @@
         <v/>
       </c>
       <c r="B87" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B87,THAM_SO!B88:C91,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B87,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C87" t="str">
@@ -4530,7 +4557,7 @@
         <v/>
       </c>
       <c r="B88" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B88,THAM_SO!B89:C92,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B88,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C88" t="str">
@@ -4560,7 +4587,7 @@
         <v/>
       </c>
       <c r="B89" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B89,THAM_SO!B90:C93,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B89,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C89" t="str">
@@ -4590,7 +4617,7 @@
         <v/>
       </c>
       <c r="B90" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B90,THAM_SO!B91:C94,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B90,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" t="str">
@@ -4620,7 +4647,7 @@
         <v/>
       </c>
       <c r="B91" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B91,THAM_SO!B92:C95,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B91,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C91" t="str">
@@ -4650,7 +4677,7 @@
         <v/>
       </c>
       <c r="B92" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B92,THAM_SO!B93:C96,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B92,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C92" t="str">
@@ -4680,7 +4707,7 @@
         <v/>
       </c>
       <c r="B93" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B93,THAM_SO!B94:C97,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B93,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C93" t="str">
@@ -4710,7 +4737,7 @@
         <v/>
       </c>
       <c r="B94" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B94,THAM_SO!B95:C98,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B94,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C94" t="str">
@@ -4740,7 +4767,7 @@
         <v/>
       </c>
       <c r="B95" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B95,THAM_SO!B96:C99,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B95,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C95" t="str">
@@ -4770,7 +4797,7 @@
         <v/>
       </c>
       <c r="B96" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B96,THAM_SO!B97:C100,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B96,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C96" t="str">
@@ -4800,7 +4827,7 @@
         <v/>
       </c>
       <c r="B97" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B97,THAM_SO!B98:C101,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B97,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C97" t="str">
@@ -4830,7 +4857,7 @@
         <v/>
       </c>
       <c r="B98" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B98,THAM_SO!B99:C102,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B98,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C98" t="str">
@@ -4860,7 +4887,7 @@
         <v/>
       </c>
       <c r="B99" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B99,THAM_SO!B100:C103,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B99,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C99" t="str">
@@ -4890,7 +4917,7 @@
         <v/>
       </c>
       <c r="B100" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B100,THAM_SO!B101:C104,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B100,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C100" t="str">
@@ -4920,7 +4947,7 @@
         <v/>
       </c>
       <c r="B101" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B101,THAM_SO!B102:C105,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B101,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C101" t="str">
@@ -4950,7 +4977,7 @@
         <v/>
       </c>
       <c r="B102" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B102,THAM_SO!B103:C106,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B102,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C102" t="str">
@@ -4980,7 +5007,7 @@
         <v/>
       </c>
       <c r="B103" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B103,THAM_SO!B104:C107,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B103,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C103" t="str">
@@ -5010,7 +5037,7 @@
         <v/>
       </c>
       <c r="B104" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B104,THAM_SO!B105:C108,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B104,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C104" t="str">
@@ -5040,7 +5067,7 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B105,THAM_SO!B106:C109,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B105,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C105" t="str">
@@ -5070,7 +5097,7 @@
         <v/>
       </c>
       <c r="B106" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B106,THAM_SO!B107:C110,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B106,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C106" t="str">
@@ -5100,7 +5127,7 @@
         <v/>
       </c>
       <c r="B107" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B107,THAM_SO!B108:C111,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B107,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C107" t="str">
@@ -5130,7 +5157,7 @@
         <v/>
       </c>
       <c r="B108" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B108,THAM_SO!B109:C112,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B108,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C108" t="str">
@@ -5160,7 +5187,7 @@
         <v/>
       </c>
       <c r="B109" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B109,THAM_SO!B110:C113,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B109,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C109" t="str">
@@ -5190,7 +5217,7 @@
         <v/>
       </c>
       <c r="B110" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B110,THAM_SO!B111:C114,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B110,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C110" t="str">
@@ -5220,7 +5247,7 @@
         <v/>
       </c>
       <c r="B111" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B111,THAM_SO!B112:C115,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B111,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C111" t="str">
@@ -5250,7 +5277,7 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B112,THAM_SO!B113:C116,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B112,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C112" t="str">
@@ -5280,7 +5307,7 @@
         <v/>
       </c>
       <c r="B113" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B113,THAM_SO!B114:C117,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B113,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C113" t="str">
@@ -5310,7 +5337,7 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B114,THAM_SO!B115:C118,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B114,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C114" t="str">
@@ -5340,7 +5367,7 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B115,THAM_SO!B116:C119,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B115,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C115" t="str">
@@ -5370,7 +5397,7 @@
         <v/>
       </c>
       <c r="B116" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B116,THAM_SO!B117:C120,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B116,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C116" t="str">
@@ -5400,7 +5427,7 @@
         <v/>
       </c>
       <c r="B117" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B117,THAM_SO!B118:C121,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B117,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C117" t="str">
@@ -5430,7 +5457,7 @@
         <v/>
       </c>
       <c r="B118" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B118,THAM_SO!B119:C122,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B118,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C118" t="str">
@@ -5460,7 +5487,7 @@
         <v/>
       </c>
       <c r="B119" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B119,THAM_SO!B120:C123,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B119,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C119" t="str">
@@ -5490,7 +5517,7 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B120,THAM_SO!B121:C124,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B120,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C120" t="str">
@@ -5520,7 +5547,7 @@
         <v/>
       </c>
       <c r="B121" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B121,THAM_SO!B122:C125,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B121,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C121" t="str">
@@ -5550,7 +5577,7 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B122,THAM_SO!B123:C126,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B122,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C122" t="str">
@@ -5580,7 +5607,7 @@
         <v/>
       </c>
       <c r="B123" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B123,THAM_SO!B124:C127,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B123,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C123" t="str">
@@ -5610,7 +5637,7 @@
         <v/>
       </c>
       <c r="B124" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B124,THAM_SO!B125:C128,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B124,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C124" t="str">
@@ -5640,7 +5667,7 @@
         <v/>
       </c>
       <c r="B125" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B125,THAM_SO!B126:C129,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B125,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C125" t="str">
@@ -5670,7 +5697,7 @@
         <v/>
       </c>
       <c r="B126" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B126,THAM_SO!B127:C130,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B126,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C126" t="str">
@@ -5700,7 +5727,7 @@
         <v/>
       </c>
       <c r="B127" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B127,THAM_SO!B128:C131,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B127,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C127" t="str">
@@ -5730,7 +5757,7 @@
         <v/>
       </c>
       <c r="B128" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B128,THAM_SO!B129:C132,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B128,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C128" t="str">
@@ -5760,7 +5787,7 @@
         <v/>
       </c>
       <c r="B129" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B129,THAM_SO!B130:C133,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B129,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C129" t="str">
@@ -5790,7 +5817,7 @@
         <v/>
       </c>
       <c r="B130" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B130,THAM_SO!B131:C134,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B130,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C130" t="str">
@@ -5820,7 +5847,7 @@
         <v/>
       </c>
       <c r="B131" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B131,THAM_SO!B132:C135,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B131,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C131" t="str">
@@ -5850,7 +5877,7 @@
         <v/>
       </c>
       <c r="B132" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B132,THAM_SO!B133:C136,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B132,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C132" t="str">
@@ -5880,7 +5907,7 @@
         <v/>
       </c>
       <c r="B133" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B133,THAM_SO!B134:C137,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B133,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C133" t="str">
@@ -5910,7 +5937,7 @@
         <v/>
       </c>
       <c r="B134" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B134,THAM_SO!B135:C138,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B134,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C134" t="str">
@@ -5940,7 +5967,7 @@
         <v/>
       </c>
       <c r="B135" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B135,THAM_SO!B136:C139,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B135,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C135" t="str">
@@ -5970,7 +5997,7 @@
         <v/>
       </c>
       <c r="B136" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B136,THAM_SO!B137:C140,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B136,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C136" t="str">
@@ -6000,7 +6027,7 @@
         <v/>
       </c>
       <c r="B137" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B137,THAM_SO!B138:C141,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B137,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C137" t="str">
@@ -6030,7 +6057,7 @@
         <v/>
       </c>
       <c r="B138" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B138,THAM_SO!B139:C142,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B138,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C138" t="str">
@@ -6060,7 +6087,7 @@
         <v/>
       </c>
       <c r="B139" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B139,THAM_SO!B140:C143,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B139,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C139" t="str">
@@ -6090,7 +6117,7 @@
         <v/>
       </c>
       <c r="B140" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B140,THAM_SO!B141:C144,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B140,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C140" t="str">
@@ -6120,7 +6147,7 @@
         <v/>
       </c>
       <c r="B141" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B141,THAM_SO!B142:C145,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B141,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C141" t="str">
@@ -6150,7 +6177,7 @@
         <v/>
       </c>
       <c r="B142" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B142,THAM_SO!B143:C146,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B142,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C142" t="str">
@@ -6180,7 +6207,7 @@
         <v/>
       </c>
       <c r="B143" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B143,THAM_SO!B144:C147,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B143,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C143" t="str">
@@ -6210,7 +6237,7 @@
         <v/>
       </c>
       <c r="B144" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B144,THAM_SO!B145:C148,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B144,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C144" t="str">
@@ -6240,7 +6267,7 @@
         <v/>
       </c>
       <c r="B145" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B145,THAM_SO!B146:C149,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B145,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C145" t="str">
@@ -6270,7 +6297,7 @@
         <v/>
       </c>
       <c r="B146" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B146,THAM_SO!B147:C150,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B146,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C146" t="str">
@@ -6300,7 +6327,7 @@
         <v/>
       </c>
       <c r="B147" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B147,THAM_SO!B148:C151,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B147,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C147" t="str">
@@ -6330,7 +6357,7 @@
         <v/>
       </c>
       <c r="B148" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B148,THAM_SO!B149:C152,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B148,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C148" t="str">
@@ -6360,7 +6387,7 @@
         <v/>
       </c>
       <c r="B149" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B149,THAM_SO!B150:C153,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B149,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C149" t="str">
@@ -6390,7 +6417,7 @@
         <v/>
       </c>
       <c r="B150" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B150,THAM_SO!B151:C154,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B150,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C150" t="str">
@@ -6420,7 +6447,7 @@
         <v/>
       </c>
       <c r="B151" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B151,THAM_SO!B152:C155,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B151,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C151" t="str">
@@ -6450,7 +6477,7 @@
         <v/>
       </c>
       <c r="B152" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B152,THAM_SO!B153:C156,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B152,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C152" t="str">
@@ -6480,7 +6507,7 @@
         <v/>
       </c>
       <c r="B153" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B153,THAM_SO!B154:C157,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B153,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C153" t="str">
@@ -6510,7 +6537,7 @@
         <v/>
       </c>
       <c r="B154" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B154,THAM_SO!B155:C158,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B154,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C154" t="str">
@@ -6540,7 +6567,7 @@
         <v/>
       </c>
       <c r="B155" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B155,THAM_SO!B156:C159,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B155,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C155" t="str">
@@ -6570,7 +6597,7 @@
         <v/>
       </c>
       <c r="B156" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B156,THAM_SO!B157:C160,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B156,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C156" t="str">
@@ -6600,7 +6627,7 @@
         <v/>
       </c>
       <c r="B157" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B157,THAM_SO!B158:C161,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B157,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C157" t="str">
@@ -6630,7 +6657,7 @@
         <v/>
       </c>
       <c r="B158" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B158,THAM_SO!B159:C162,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B158,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C158" t="str">
@@ -6660,7 +6687,7 @@
         <v/>
       </c>
       <c r="B159" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B159,THAM_SO!B160:C163,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B159,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C159" t="str">
@@ -6690,7 +6717,7 @@
         <v/>
       </c>
       <c r="B160" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B160,THAM_SO!B161:C164,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B160,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C160" t="str">
@@ -6720,7 +6747,7 @@
         <v/>
       </c>
       <c r="B161" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B161,THAM_SO!B162:C165,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B161,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C161" t="str">
@@ -6750,7 +6777,7 @@
         <v/>
       </c>
       <c r="B162" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B162,THAM_SO!B163:C166,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B162,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C162" t="str">
@@ -6780,7 +6807,7 @@
         <v/>
       </c>
       <c r="B163" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B163,THAM_SO!B164:C167,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B163,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C163" t="str">
@@ -6810,7 +6837,7 @@
         <v/>
       </c>
       <c r="B164" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B164,THAM_SO!B165:C168,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B164,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C164" t="str">
@@ -6840,7 +6867,7 @@
         <v/>
       </c>
       <c r="B165" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B165,THAM_SO!B166:C169,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B165,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C165" t="str">
@@ -6870,7 +6897,7 @@
         <v/>
       </c>
       <c r="B166" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B166,THAM_SO!B167:C170,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B166,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C166" t="str">
@@ -6900,7 +6927,7 @@
         <v/>
       </c>
       <c r="B167" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B167,THAM_SO!B168:C171,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B167,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C167" t="str">
@@ -6930,7 +6957,7 @@
         <v/>
       </c>
       <c r="B168" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B168,THAM_SO!B169:C172,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B168,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C168" t="str">
@@ -6960,7 +6987,7 @@
         <v/>
       </c>
       <c r="B169" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B169,THAM_SO!B170:C173,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B169,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C169" t="str">
@@ -6990,7 +7017,7 @@
         <v/>
       </c>
       <c r="B170" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B170,THAM_SO!B171:C174,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B170,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C170" t="str">
@@ -7020,7 +7047,7 @@
         <v/>
       </c>
       <c r="B171" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B171,THAM_SO!B172:C175,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B171,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C171" t="str">
@@ -7050,7 +7077,7 @@
         <v/>
       </c>
       <c r="B172" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B172,THAM_SO!B173:C176,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B172,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C172" t="str">
@@ -7080,7 +7107,7 @@
         <v/>
       </c>
       <c r="B173" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B173,THAM_SO!B174:C177,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B173,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C173" t="str">
@@ -7110,7 +7137,7 @@
         <v/>
       </c>
       <c r="B174" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B174,THAM_SO!B175:C178,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B174,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C174" t="str">
@@ -7140,7 +7167,7 @@
         <v/>
       </c>
       <c r="B175" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B175,THAM_SO!B176:C179,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B175,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C175" t="str">
@@ -7170,7 +7197,7 @@
         <v/>
       </c>
       <c r="B176" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B176,THAM_SO!B177:C180,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B176,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C176" t="str">
@@ -7200,7 +7227,7 @@
         <v/>
       </c>
       <c r="B177" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B177,THAM_SO!B178:C181,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B177,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C177" t="str">
@@ -7230,7 +7257,7 @@
         <v/>
       </c>
       <c r="B178" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B178,THAM_SO!B179:C182,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B178,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C178" t="str">
@@ -7260,7 +7287,7 @@
         <v/>
       </c>
       <c r="B179" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B179,THAM_SO!B180:C183,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B179,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C179" t="str">
@@ -7290,7 +7317,7 @@
         <v/>
       </c>
       <c r="B180" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B180,THAM_SO!B181:C184,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B180,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C180" t="str">
@@ -7320,7 +7347,7 @@
         <v/>
       </c>
       <c r="B181" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B181,THAM_SO!B182:C185,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B181,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C181" t="str">
@@ -7350,7 +7377,7 @@
         <v/>
       </c>
       <c r="B182" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B182,THAM_SO!B183:C186,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B182,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C182" t="str">
@@ -7380,7 +7407,7 @@
         <v/>
       </c>
       <c r="B183" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B183,THAM_SO!B184:C187,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B183,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C183" t="str">
@@ -7410,7 +7437,7 @@
         <v/>
       </c>
       <c r="B184" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B184,THAM_SO!B185:C188,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B184,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C184" t="str">
@@ -7440,7 +7467,7 @@
         <v/>
       </c>
       <c r="B185" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B185,THAM_SO!B186:C189,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B185,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C185" t="str">
@@ -7470,7 +7497,7 @@
         <v/>
       </c>
       <c r="B186" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B186,THAM_SO!B187:C190,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B186,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C186" t="str">
@@ -7500,7 +7527,7 @@
         <v/>
       </c>
       <c r="B187" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B187,THAM_SO!B188:C191,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B187,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C187" t="str">
@@ -7530,7 +7557,7 @@
         <v/>
       </c>
       <c r="B188" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B188,THAM_SO!B189:C192,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B188,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C188" t="str">
@@ -7560,7 +7587,7 @@
         <v/>
       </c>
       <c r="B189" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B189,THAM_SO!B190:C193,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B189,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C189" t="str">
@@ -7590,7 +7617,7 @@
         <v/>
       </c>
       <c r="B190" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B190,THAM_SO!B191:C194,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B190,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C190" t="str">
@@ -7620,7 +7647,7 @@
         <v/>
       </c>
       <c r="B191" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B191,THAM_SO!B192:C195,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B191,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C191" t="str">
@@ -7650,7 +7677,7 @@
         <v/>
       </c>
       <c r="B192" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B192,THAM_SO!B193:C196,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B192,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C192" t="str">
@@ -7680,7 +7707,7 @@
         <v/>
       </c>
       <c r="B193" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B193,THAM_SO!B194:C197,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B193,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C193" t="str">
@@ -7710,7 +7737,7 @@
         <v/>
       </c>
       <c r="B194" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B194,THAM_SO!B195:C198,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B194,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C194" t="str">
@@ -7740,7 +7767,7 @@
         <v/>
       </c>
       <c r="B195" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B195,THAM_SO!B196:C199,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B195,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C195" t="str">
@@ -7770,7 +7797,7 @@
         <v/>
       </c>
       <c r="B196" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B196,THAM_SO!B197:C200,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B196,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C196" t="str">
@@ -7800,7 +7827,7 @@
         <v/>
       </c>
       <c r="B197" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B197,THAM_SO!B198:C201,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B197,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C197" t="str">
@@ -7830,7 +7857,7 @@
         <v/>
       </c>
       <c r="B198" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B198,THAM_SO!B199:C202,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B198,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C198" t="str">
@@ -7860,7 +7887,7 @@
         <v/>
       </c>
       <c r="B199" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B199,THAM_SO!B200:C203,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B199,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C199" t="str">
@@ -7890,7 +7917,7 @@
         <v/>
       </c>
       <c r="B200" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B200,THAM_SO!B201:C204,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B200,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C200" t="str">
@@ -7920,7 +7947,7 @@
         <v/>
       </c>
       <c r="B201" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B201,THAM_SO!B202:C205,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B201,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C201" t="str">
@@ -7950,7 +7977,7 @@
         <v/>
       </c>
       <c r="B202" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B202,THAM_SO!B203:C206,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B202,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C202" t="str">
@@ -7980,7 +8007,7 @@
         <v/>
       </c>
       <c r="B203" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B203,THAM_SO!B204:C207,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B203,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C203" t="str">
@@ -8010,7 +8037,7 @@
         <v/>
       </c>
       <c r="B204" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B204,THAM_SO!B205:C208,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B204,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C204" t="str">
@@ -8040,7 +8067,7 @@
         <v/>
       </c>
       <c r="B205" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B205,THAM_SO!B206:C209,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B205,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C205" t="str">
@@ -8070,7 +8097,7 @@
         <v/>
       </c>
       <c r="B206" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B206,THAM_SO!B207:C210,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B206,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C206" t="str">
@@ -8100,7 +8127,7 @@
         <v/>
       </c>
       <c r="B207" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B207,THAM_SO!B208:C211,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B207,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C207" t="str">
@@ -8130,7 +8157,7 @@
         <v/>
       </c>
       <c r="B208" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B208,THAM_SO!B209:C212,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B208,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C208" t="str">
@@ -8160,7 +8187,7 @@
         <v/>
       </c>
       <c r="B209" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B209,THAM_SO!B210:C213,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B209,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C209" t="str">
@@ -8190,7 +8217,7 @@
         <v/>
       </c>
       <c r="B210" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B210,THAM_SO!B211:C214,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B210,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C210" t="str">
@@ -8220,7 +8247,7 @@
         <v/>
       </c>
       <c r="B211" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B211,THAM_SO!B212:C215,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B211,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C211" t="str">
@@ -8250,7 +8277,7 @@
         <v/>
       </c>
       <c r="B212" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B212,THAM_SO!B213:C216,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B212,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C212" t="str">
@@ -8280,7 +8307,7 @@
         <v/>
       </c>
       <c r="B213" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B213,THAM_SO!B214:C217,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B213,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C213" t="str">
@@ -8310,7 +8337,7 @@
         <v/>
       </c>
       <c r="B214" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B214,THAM_SO!B215:C218,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B214,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C214" t="str">
@@ -8340,7 +8367,7 @@
         <v/>
       </c>
       <c r="B215" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B215,THAM_SO!B216:C219,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B215,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C215" t="str">
@@ -8370,7 +8397,7 @@
         <v/>
       </c>
       <c r="B216" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B216,THAM_SO!B217:C220,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B216,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C216" t="str">
@@ -8400,7 +8427,7 @@
         <v/>
       </c>
       <c r="B217" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B217,THAM_SO!B218:C221,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B217,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C217" t="str">
@@ -8430,7 +8457,7 @@
         <v/>
       </c>
       <c r="B218" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B218,THAM_SO!B219:C222,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B218,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C218" t="str">
@@ -8460,7 +8487,7 @@
         <v/>
       </c>
       <c r="B219" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B219,THAM_SO!B220:C223,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B219,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C219" t="str">
@@ -8490,7 +8517,7 @@
         <v/>
       </c>
       <c r="B220" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B220,THAM_SO!B221:C224,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B220,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C220" t="str">
@@ -8520,7 +8547,7 @@
         <v/>
       </c>
       <c r="B221" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B221,THAM_SO!B222:C225,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B221,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C221" t="str">
@@ -8550,7 +8577,7 @@
         <v/>
       </c>
       <c r="B222" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B222,THAM_SO!B223:C226,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B222,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C222" t="str">
@@ -8580,7 +8607,7 @@
         <v/>
       </c>
       <c r="B223" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B223,THAM_SO!B224:C227,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B223,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C223" t="str">
@@ -8610,7 +8637,7 @@
         <v/>
       </c>
       <c r="B224" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B224,THAM_SO!B225:C228,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B224,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C224" t="str">
@@ -8640,7 +8667,7 @@
         <v/>
       </c>
       <c r="B225" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B225,THAM_SO!B226:C229,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B225,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C225" t="str">
@@ -8670,7 +8697,7 @@
         <v/>
       </c>
       <c r="B226" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B226,THAM_SO!B227:C230,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B226,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C226" t="str">
@@ -8700,7 +8727,7 @@
         <v/>
       </c>
       <c r="B227" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B227,THAM_SO!B228:C231,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B227,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C227" t="str">
@@ -8730,7 +8757,7 @@
         <v/>
       </c>
       <c r="B228" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B228,THAM_SO!B229:C232,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B228,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C228" t="str">
@@ -8760,7 +8787,7 @@
         <v/>
       </c>
       <c r="B229" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B229,THAM_SO!B230:C233,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B229,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C229" t="str">
@@ -8790,7 +8817,7 @@
         <v/>
       </c>
       <c r="B230" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B230,THAM_SO!B231:C234,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B230,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C230" t="str">
@@ -8820,7 +8847,7 @@
         <v/>
       </c>
       <c r="B231" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B231,THAM_SO!B232:C235,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B231,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C231" t="str">
@@ -8850,7 +8877,7 @@
         <v/>
       </c>
       <c r="B232" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B232,THAM_SO!B233:C236,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B232,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C232" t="str">
@@ -8880,7 +8907,7 @@
         <v/>
       </c>
       <c r="B233" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B233,THAM_SO!B234:C237,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B233,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C233" t="str">
@@ -8910,7 +8937,7 @@
         <v/>
       </c>
       <c r="B234" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B234,THAM_SO!B235:C238,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B234,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C234" t="str">
@@ -8940,7 +8967,7 @@
         <v/>
       </c>
       <c r="B235" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B235,THAM_SO!B236:C239,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B235,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C235" t="str">
@@ -8970,7 +8997,7 @@
         <v/>
       </c>
       <c r="B236" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B236,THAM_SO!B237:C240,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B236,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C236" t="str">
@@ -9000,7 +9027,7 @@
         <v/>
       </c>
       <c r="B237" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B237,THAM_SO!B238:C241,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B237,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C237" t="str">
@@ -9030,7 +9057,7 @@
         <v/>
       </c>
       <c r="B238" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B238,THAM_SO!B239:C242,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B238,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C238" t="str">
@@ -9060,7 +9087,7 @@
         <v/>
       </c>
       <c r="B239" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B239,THAM_SO!B240:C243,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B239,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C239" t="str">
@@ -9090,7 +9117,7 @@
         <v/>
       </c>
       <c r="B240" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B240,THAM_SO!B241:C244,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B240,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C240" t="str">
@@ -9120,7 +9147,7 @@
         <v/>
       </c>
       <c r="B241" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B241,THAM_SO!B242:C245,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B241,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C241" t="str">
@@ -9150,7 +9177,7 @@
         <v/>
       </c>
       <c r="B242" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B242,THAM_SO!B243:C246,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B242,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C242" t="str">
@@ -9180,7 +9207,7 @@
         <v/>
       </c>
       <c r="B243" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B243,THAM_SO!B244:C247,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B243,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C243" t="str">
@@ -9210,7 +9237,7 @@
         <v/>
       </c>
       <c r="B244" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B244,THAM_SO!B245:C248,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B244,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C244" t="str">
@@ -9240,7 +9267,7 @@
         <v/>
       </c>
       <c r="B245" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B245,THAM_SO!B246:C249,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B245,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C245" t="str">
@@ -9270,7 +9297,7 @@
         <v/>
       </c>
       <c r="B246" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B246,THAM_SO!B247:C250,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B246,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C246" t="str">
@@ -9300,7 +9327,7 @@
         <v/>
       </c>
       <c r="B247" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B247,THAM_SO!B248:C251,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B247,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C247" t="str">
@@ -9330,7 +9357,7 @@
         <v/>
       </c>
       <c r="B248" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B248,THAM_SO!B249:C252,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B248,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C248" t="str">
@@ -9360,7 +9387,7 @@
         <v/>
       </c>
       <c r="B249" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B249,THAM_SO!B250:C253,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B249,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C249" t="str">
@@ -9390,7 +9417,7 @@
         <v/>
       </c>
       <c r="B250" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B250,THAM_SO!B251:C254,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B250,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C250" t="str">
@@ -9420,7 +9447,7 @@
         <v/>
       </c>
       <c r="B251" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B251,THAM_SO!B252:C255,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B251,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C251" t="str">
@@ -9450,7 +9477,7 @@
         <v/>
       </c>
       <c r="B252" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B252,THAM_SO!B253:C256,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B252,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C252" t="str">
@@ -9480,7 +9507,7 @@
         <v/>
       </c>
       <c r="B253" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B253,THAM_SO!B254:C257,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B253,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C253" t="str">
@@ -9510,7 +9537,7 @@
         <v/>
       </c>
       <c r="B254" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B254,THAM_SO!B255:C258,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B254,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C254" t="str">
@@ -9540,7 +9567,7 @@
         <v/>
       </c>
       <c r="B255" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B255,THAM_SO!B256:C259,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B255,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C255" t="str">
@@ -9570,7 +9597,7 @@
         <v/>
       </c>
       <c r="B256" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B256,THAM_SO!B257:C260,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B256,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C256" t="str">
@@ -9600,7 +9627,7 @@
         <v/>
       </c>
       <c r="B257" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B257,THAM_SO!B258:C261,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B257,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C257" t="str">
@@ -9630,7 +9657,7 @@
         <v/>
       </c>
       <c r="B258" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B258,THAM_SO!B259:C262,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B258,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C258" t="str">
@@ -9660,7 +9687,7 @@
         <v/>
       </c>
       <c r="B259" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B259,THAM_SO!B260:C263,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B259,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C259" t="str">
@@ -9690,7 +9717,7 @@
         <v/>
       </c>
       <c r="B260" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B260,THAM_SO!B261:C264,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B260,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C260" t="str">
@@ -9720,7 +9747,7 @@
         <v/>
       </c>
       <c r="B261" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B261,THAM_SO!B262:C265,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B261,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C261" t="str">
@@ -9750,7 +9777,7 @@
         <v/>
       </c>
       <c r="B262" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B262,THAM_SO!B263:C266,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B262,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C262" t="str">
@@ -9780,7 +9807,7 @@
         <v/>
       </c>
       <c r="B263" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B263,THAM_SO!B264:C267,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B263,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C263" t="str">
@@ -9810,7 +9837,7 @@
         <v/>
       </c>
       <c r="B264" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B264,THAM_SO!B265:C268,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B264,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C264" t="str">
@@ -9840,7 +9867,7 @@
         <v/>
       </c>
       <c r="B265" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B265,THAM_SO!B266:C269,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B265,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C265" t="str">
@@ -9870,7 +9897,7 @@
         <v/>
       </c>
       <c r="B266" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B266,THAM_SO!B267:C270,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B266,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C266" t="str">
@@ -9900,7 +9927,7 @@
         <v/>
       </c>
       <c r="B267" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B267,THAM_SO!B268:C271,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B267,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C267" t="str">
@@ -9930,7 +9957,7 @@
         <v/>
       </c>
       <c r="B268" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B268,THAM_SO!B269:C272,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B268,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C268" t="str">
@@ -9960,7 +9987,7 @@
         <v/>
       </c>
       <c r="B269" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B269,THAM_SO!B270:C273,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B269,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C269" t="str">
@@ -9990,7 +10017,7 @@
         <v/>
       </c>
       <c r="B270" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B270,THAM_SO!B271:C274,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B270,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C270" t="str">
@@ -10020,7 +10047,7 @@
         <v/>
       </c>
       <c r="B271" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B271,THAM_SO!B272:C275,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B271,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C271" t="str">
@@ -10050,7 +10077,7 @@
         <v/>
       </c>
       <c r="B272" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B272,THAM_SO!B273:C276,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B272,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C272" t="str">
@@ -10080,7 +10107,7 @@
         <v/>
       </c>
       <c r="B273" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B273,THAM_SO!B274:C277,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B273,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C273" t="str">
@@ -10110,7 +10137,7 @@
         <v/>
       </c>
       <c r="B274" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B274,THAM_SO!B275:C278,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B274,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C274" t="str">
@@ -10140,7 +10167,7 @@
         <v/>
       </c>
       <c r="B275" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B275,THAM_SO!B276:C279,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B275,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C275" t="str">
@@ -10170,7 +10197,7 @@
         <v/>
       </c>
       <c r="B276" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B276,THAM_SO!B277:C280,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B276,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C276" t="str">
@@ -10200,7 +10227,7 @@
         <v/>
       </c>
       <c r="B277" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B277,THAM_SO!B278:C281,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B277,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C277" t="str">
@@ -10230,7 +10257,7 @@
         <v/>
       </c>
       <c r="B278" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B278,THAM_SO!B279:C282,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B278,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C278" t="str">
@@ -10260,7 +10287,7 @@
         <v/>
       </c>
       <c r="B279" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B279,THAM_SO!B280:C283,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B279,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C279" t="str">
@@ -10290,7 +10317,7 @@
         <v/>
       </c>
       <c r="B280" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B280,THAM_SO!B281:C284,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B280,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C280" t="str">
@@ -10320,7 +10347,7 @@
         <v/>
       </c>
       <c r="B281" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B281,THAM_SO!B282:C285,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B281,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C281" t="str">
@@ -10350,7 +10377,7 @@
         <v/>
       </c>
       <c r="B282" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B282,THAM_SO!B283:C286,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B282,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C282" t="str">
@@ -10380,7 +10407,7 @@
         <v/>
       </c>
       <c r="B283" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B283,THAM_SO!B284:C287,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B283,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C283" t="str">
@@ -10410,7 +10437,7 @@
         <v/>
       </c>
       <c r="B284" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B284,THAM_SO!B285:C288,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B284,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C284" t="str">
@@ -10440,7 +10467,7 @@
         <v/>
       </c>
       <c r="B285" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B285,THAM_SO!B286:C289,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B285,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C285" t="str">
@@ -10470,7 +10497,7 @@
         <v/>
       </c>
       <c r="B286" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B286,THAM_SO!B287:C290,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B286,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C286" t="str">
@@ -10500,7 +10527,7 @@
         <v/>
       </c>
       <c r="B287" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B287,THAM_SO!B288:C291,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B287,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C287" t="str">
@@ -10530,7 +10557,7 @@
         <v/>
       </c>
       <c r="B288" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B288,THAM_SO!B289:C292,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B288,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C288" t="str">
@@ -10560,7 +10587,7 @@
         <v/>
       </c>
       <c r="B289" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B289,THAM_SO!B290:C293,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B289,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C289" t="str">
@@ -10590,7 +10617,7 @@
         <v/>
       </c>
       <c r="B290" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B290,THAM_SO!B291:C294,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B290,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C290" t="str">
@@ -10620,7 +10647,7 @@
         <v/>
       </c>
       <c r="B291" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B291,THAM_SO!B292:C295,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B291,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C291" t="str">
@@ -10650,7 +10677,7 @@
         <v/>
       </c>
       <c r="B292" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B292,THAM_SO!B293:C296,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B292,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C292" t="str">
@@ -10680,7 +10707,7 @@
         <v/>
       </c>
       <c r="B293" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B293,THAM_SO!B294:C297,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B293,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C293" t="str">
@@ -10710,7 +10737,7 @@
         <v/>
       </c>
       <c r="B294" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B294,THAM_SO!B295:C298,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B294,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C294" t="str">
@@ -10740,7 +10767,7 @@
         <v/>
       </c>
       <c r="B295" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B295,THAM_SO!B296:C299,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B295,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C295" t="str">
@@ -10770,7 +10797,7 @@
         <v/>
       </c>
       <c r="B296" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B296,THAM_SO!B297:C300,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B296,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C296" t="str">
@@ -10800,7 +10827,7 @@
         <v/>
       </c>
       <c r="B297" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B297,THAM_SO!B298:C301,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B297,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C297" t="str">
@@ -10830,7 +10857,7 @@
         <v/>
       </c>
       <c r="B298" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B298,THAM_SO!B299:C302,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B298,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C298" t="str">
@@ -10860,7 +10887,7 @@
         <v/>
       </c>
       <c r="B299" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B299,THAM_SO!B300:C303,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B299,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C299" t="str">
@@ -10890,7 +10917,7 @@
         <v/>
       </c>
       <c r="B300" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B300,THAM_SO!B301:C304,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B300,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C300" t="str">
@@ -10920,7 +10947,7 @@
         <v/>
       </c>
       <c r="B301" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B301,THAM_SO!B302:C305,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B301,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C301" t="str">
@@ -10950,7 +10977,7 @@
         <v/>
       </c>
       <c r="B302" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B302,THAM_SO!B303:C306,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B302,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C302" t="str">
@@ -10980,7 +11007,7 @@
         <v/>
       </c>
       <c r="B303" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B303,THAM_SO!B304:C307,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B303,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C303" t="str">
@@ -11010,7 +11037,7 @@
         <v/>
       </c>
       <c r="B304" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B304,THAM_SO!B305:C308,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B304,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C304" t="str">
@@ -11040,7 +11067,7 @@
         <v/>
       </c>
       <c r="B305" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B305,THAM_SO!B306:C309,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B305,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C305" t="str">
@@ -11070,7 +11097,7 @@
         <v/>
       </c>
       <c r="B306" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B306,THAM_SO!B307:C310,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B306,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C306" t="str">
@@ -11100,7 +11127,7 @@
         <v/>
       </c>
       <c r="B307" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B307,THAM_SO!B308:C311,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B307,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C307" t="str">
@@ -11130,7 +11157,7 @@
         <v/>
       </c>
       <c r="B308" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B308,THAM_SO!B309:C312,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B308,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C308" t="str">
@@ -11160,7 +11187,7 @@
         <v/>
       </c>
       <c r="B309" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B309,THAM_SO!B310:C313,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B309,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C309" t="str">
@@ -11190,7 +11217,7 @@
         <v/>
       </c>
       <c r="B310" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B310,THAM_SO!B311:C314,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B310,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C310" t="str">
@@ -11220,7 +11247,7 @@
         <v/>
       </c>
       <c r="B311" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B311,THAM_SO!B312:C315,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B311,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C311" t="str">
@@ -11250,7 +11277,7 @@
         <v/>
       </c>
       <c r="B312" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B312,THAM_SO!B313:C316,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B312,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C312" t="str">
@@ -11280,7 +11307,7 @@
         <v/>
       </c>
       <c r="B313" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B313,THAM_SO!B314:C317,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B313,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C313" t="str">
@@ -11310,7 +11337,7 @@
         <v/>
       </c>
       <c r="B314" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B314,THAM_SO!B315:C318,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B314,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C314" t="str">
@@ -11340,7 +11367,7 @@
         <v/>
       </c>
       <c r="B315" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B315,THAM_SO!B316:C319,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B315,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C315" t="str">
@@ -11370,7 +11397,7 @@
         <v/>
       </c>
       <c r="B316" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B316,THAM_SO!B317:C320,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B316,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C316" t="str">
@@ -11400,7 +11427,7 @@
         <v/>
       </c>
       <c r="B317" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B317,THAM_SO!B318:C321,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B317,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C317" t="str">
@@ -11430,7 +11457,7 @@
         <v/>
       </c>
       <c r="B318" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B318,THAM_SO!B319:C322,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B318,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C318" t="str">
@@ -11460,7 +11487,7 @@
         <v/>
       </c>
       <c r="B319" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B319,THAM_SO!B320:C323,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B319,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C319" t="str">
@@ -11490,7 +11517,7 @@
         <v/>
       </c>
       <c r="B320" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B320,THAM_SO!B321:C324,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B320,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C320" t="str">
@@ -11520,7 +11547,7 @@
         <v/>
       </c>
       <c r="B321" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B321,THAM_SO!B322:C325,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B321,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C321" t="str">
@@ -11550,7 +11577,7 @@
         <v/>
       </c>
       <c r="B322" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B322,THAM_SO!B323:C326,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B322,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C322" t="str">
@@ -11580,7 +11607,7 @@
         <v/>
       </c>
       <c r="B323" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B323,THAM_SO!B324:C327,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B323,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C323" t="str">
@@ -11610,7 +11637,7 @@
         <v/>
       </c>
       <c r="B324" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B324,THAM_SO!B325:C328,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B324,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C324" t="str">
@@ -11640,7 +11667,7 @@
         <v/>
       </c>
       <c r="B325" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B325,THAM_SO!B326:C329,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B325,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C325" t="str">
@@ -11670,7 +11697,7 @@
         <v/>
       </c>
       <c r="B326" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B326,THAM_SO!B327:C330,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B326,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C326" t="str">
@@ -11700,7 +11727,7 @@
         <v/>
       </c>
       <c r="B327" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B327,THAM_SO!B328:C331,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B327,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C327" t="str">
@@ -11730,7 +11757,7 @@
         <v/>
       </c>
       <c r="B328" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B328,THAM_SO!B329:C332,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B328,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C328" t="str">
@@ -11760,7 +11787,7 @@
         <v/>
       </c>
       <c r="B329" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B329,THAM_SO!B330:C333,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B329,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C329" t="str">
@@ -11790,7 +11817,7 @@
         <v/>
       </c>
       <c r="B330" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B330,THAM_SO!B331:C334,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B330,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C330" t="str">
@@ -11820,7 +11847,7 @@
         <v/>
       </c>
       <c r="B331" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B331,THAM_SO!B332:C335,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B331,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C331" t="str">
@@ -11850,7 +11877,7 @@
         <v/>
       </c>
       <c r="B332" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B332,THAM_SO!B333:C336,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B332,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C332" t="str">
@@ -11880,7 +11907,7 @@
         <v/>
       </c>
       <c r="B333" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B333,THAM_SO!B334:C337,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B333,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C333" t="str">
@@ -11910,7 +11937,7 @@
         <v/>
       </c>
       <c r="B334" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B334,THAM_SO!B335:C338,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B334,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C334" t="str">
@@ -11940,7 +11967,7 @@
         <v/>
       </c>
       <c r="B335" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B335,THAM_SO!B336:C339,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B335,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C335" t="str">
@@ -11970,7 +11997,7 @@
         <v/>
       </c>
       <c r="B336" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B336,THAM_SO!B337:C340,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B336,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C336" t="str">
@@ -12000,7 +12027,7 @@
         <v/>
       </c>
       <c r="B337" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B337,THAM_SO!B338:C341,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B337,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C337" t="str">
@@ -12030,7 +12057,7 @@
         <v/>
       </c>
       <c r="B338" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B338,THAM_SO!B339:C342,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B338,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C338" t="str">
@@ -12060,7 +12087,7 @@
         <v/>
       </c>
       <c r="B339" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B339,THAM_SO!B340:C343,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B339,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C339" t="str">
@@ -12090,7 +12117,7 @@
         <v/>
       </c>
       <c r="B340" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B340,THAM_SO!B341:C344,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B340,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C340" t="str">
@@ -12120,7 +12147,7 @@
         <v/>
       </c>
       <c r="B341" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B341,THAM_SO!B342:C345,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B341,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C341" t="str">
@@ -12150,7 +12177,7 @@
         <v/>
       </c>
       <c r="B342" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B342,THAM_SO!B343:C346,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B342,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C342" t="str">
@@ -12180,7 +12207,7 @@
         <v/>
       </c>
       <c r="B343" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B343,THAM_SO!B344:C347,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B343,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C343" t="str">
@@ -12210,7 +12237,7 @@
         <v/>
       </c>
       <c r="B344" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B344,THAM_SO!B345:C348,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B344,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C344" t="str">
@@ -12240,7 +12267,7 @@
         <v/>
       </c>
       <c r="B345" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B345,THAM_SO!B346:C349,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B345,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C345" t="str">
@@ -12270,7 +12297,7 @@
         <v/>
       </c>
       <c r="B346" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B346,THAM_SO!B347:C350,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B346,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C346" t="str">
@@ -12300,7 +12327,7 @@
         <v/>
       </c>
       <c r="B347" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B347,THAM_SO!B348:C351,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B347,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C347" t="str">
@@ -12330,7 +12357,7 @@
         <v/>
       </c>
       <c r="B348" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B348,THAM_SO!B349:C352,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B348,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C348" t="str">
@@ -12360,7 +12387,7 @@
         <v/>
       </c>
       <c r="B349" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B349,THAM_SO!B350:C353,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B349,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C349" t="str">
@@ -12390,7 +12417,7 @@
         <v/>
       </c>
       <c r="B350" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B350,THAM_SO!B351:C354,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B350,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C350" t="str">
@@ -12420,7 +12447,7 @@
         <v/>
       </c>
       <c r="B351" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B351,THAM_SO!B352:C355,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B351,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C351" t="str">
@@ -12450,7 +12477,7 @@
         <v/>
       </c>
       <c r="B352" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B352,THAM_SO!B353:C356,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B352,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C352" t="str">
@@ -12480,7 +12507,7 @@
         <v/>
       </c>
       <c r="B353" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B353,THAM_SO!B354:C357,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B353,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C353" t="str">
@@ -12510,7 +12537,7 @@
         <v/>
       </c>
       <c r="B354" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B354,THAM_SO!B355:C358,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B354,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C354" t="str">
@@ -12540,7 +12567,7 @@
         <v/>
       </c>
       <c r="B355" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B355,THAM_SO!B356:C359,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B355,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C355" t="str">
@@ -12570,7 +12597,7 @@
         <v/>
       </c>
       <c r="B356" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B356,THAM_SO!B357:C360,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B356,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C356" t="str">
@@ -12600,7 +12627,7 @@
         <v/>
       </c>
       <c r="B357" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B357,THAM_SO!B358:C361,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B357,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C357" t="str">
@@ -12630,7 +12657,7 @@
         <v/>
       </c>
       <c r="B358" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B358,THAM_SO!B359:C362,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B358,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C358" t="str">
@@ -12660,7 +12687,7 @@
         <v/>
       </c>
       <c r="B359" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B359,THAM_SO!B360:C363,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B359,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C359" t="str">
@@ -12690,7 +12717,7 @@
         <v/>
       </c>
       <c r="B360" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B360,THAM_SO!B361:C364,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B360,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C360" t="str">
@@ -12720,7 +12747,7 @@
         <v/>
       </c>
       <c r="B361" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B361,THAM_SO!B362:C365,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B361,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C361" t="str">
@@ -12750,7 +12777,7 @@
         <v/>
       </c>
       <c r="B362" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B362,THAM_SO!B363:C366,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B362,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C362" t="str">
@@ -12780,7 +12807,7 @@
         <v/>
       </c>
       <c r="B363" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B363,THAM_SO!B364:C367,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B363,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C363" t="str">
@@ -12810,7 +12837,7 @@
         <v/>
       </c>
       <c r="B364" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B364,THAM_SO!B365:C368,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B364,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C364" t="str">
@@ -12840,7 +12867,7 @@
         <v/>
       </c>
       <c r="B365" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B365,THAM_SO!B366:C369,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B365,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C365" t="str">
@@ -12870,7 +12897,7 @@
         <v/>
       </c>
       <c r="B366" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B366,THAM_SO!B367:C370,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B366,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C366" t="str">
@@ -12900,7 +12927,7 @@
         <v/>
       </c>
       <c r="B367" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B367,THAM_SO!B368:C371,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B367,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C367" t="str">
@@ -12930,7 +12957,7 @@
         <v/>
       </c>
       <c r="B368" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B368,THAM_SO!B369:C372,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B368,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C368" t="str">
@@ -12960,7 +12987,7 @@
         <v/>
       </c>
       <c r="B369" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B369,THAM_SO!B370:C373,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B369,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C369" t="str">
@@ -12990,7 +13017,7 @@
         <v/>
       </c>
       <c r="B370" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B370,THAM_SO!B371:C374,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B370,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C370" t="str">
@@ -13020,7 +13047,7 @@
         <v/>
       </c>
       <c r="B371" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B371,THAM_SO!B372:C375,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B371,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C371" t="str">
@@ -13050,7 +13077,7 @@
         <v/>
       </c>
       <c r="B372" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B372,THAM_SO!B373:C376,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B372,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C372" t="str">
@@ -13080,7 +13107,7 @@
         <v/>
       </c>
       <c r="B373" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B373,THAM_SO!B374:C377,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B373,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C373" t="str">
@@ -13110,7 +13137,7 @@
         <v/>
       </c>
       <c r="B374" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B374,THAM_SO!B375:C378,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B374,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C374" t="str">
@@ -13140,7 +13167,7 @@
         <v/>
       </c>
       <c r="B375" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B375,THAM_SO!B376:C379,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B375,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C375" t="str">
@@ -13170,7 +13197,7 @@
         <v/>
       </c>
       <c r="B376" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B376,THAM_SO!B377:C380,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B376,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C376" t="str">
@@ -13200,7 +13227,7 @@
         <v/>
       </c>
       <c r="B377" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B377,THAM_SO!B378:C381,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B377,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C377" t="str">
@@ -13230,7 +13257,7 @@
         <v/>
       </c>
       <c r="B378" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B378,THAM_SO!B379:C382,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B378,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C378" t="str">
@@ -13260,7 +13287,7 @@
         <v/>
       </c>
       <c r="B379" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B379,THAM_SO!B380:C383,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B379,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C379" t="str">
@@ -13290,7 +13317,7 @@
         <v/>
       </c>
       <c r="B380" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B380,THAM_SO!B381:C384,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B380,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C380" t="str">
@@ -13320,7 +13347,7 @@
         <v/>
       </c>
       <c r="B381" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B381,THAM_SO!B382:C385,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B381,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C381" t="str">
@@ -13350,7 +13377,7 @@
         <v/>
       </c>
       <c r="B382" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B382,THAM_SO!B383:C386,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B382,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C382" t="str">
@@ -13380,7 +13407,7 @@
         <v/>
       </c>
       <c r="B383" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B383,THAM_SO!B384:C387,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B383,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C383" t="str">
@@ -13410,7 +13437,7 @@
         <v/>
       </c>
       <c r="B384" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B384,THAM_SO!B385:C388,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B384,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C384" t="str">
@@ -13440,7 +13467,7 @@
         <v/>
       </c>
       <c r="B385" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B385,THAM_SO!B386:C389,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B385,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C385" t="str">
@@ -13470,7 +13497,7 @@
         <v/>
       </c>
       <c r="B386" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B386,THAM_SO!B387:C390,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B386,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C386" t="str">
@@ -13500,7 +13527,7 @@
         <v/>
       </c>
       <c r="B387" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B387,THAM_SO!B388:C391,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B387,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C387" t="str">
@@ -13530,7 +13557,7 @@
         <v/>
       </c>
       <c r="B388" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B388,THAM_SO!B389:C392,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B388,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C388" t="str">
@@ -13560,7 +13587,7 @@
         <v/>
       </c>
       <c r="B389" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B389,THAM_SO!B390:C393,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B389,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C389" t="str">
@@ -13590,7 +13617,7 @@
         <v/>
       </c>
       <c r="B390" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B390,THAM_SO!B391:C394,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B390,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C390" t="str">
@@ -13620,7 +13647,7 @@
         <v/>
       </c>
       <c r="B391" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B391,THAM_SO!B392:C395,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B391,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C391" t="str">
@@ -13650,7 +13677,7 @@
         <v/>
       </c>
       <c r="B392" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B392,THAM_SO!B393:C396,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B392,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C392" t="str">
@@ -13680,7 +13707,7 @@
         <v/>
       </c>
       <c r="B393" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B393,THAM_SO!B394:C397,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B393,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C393" t="str">
@@ -13710,7 +13737,7 @@
         <v/>
       </c>
       <c r="B394" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B394,THAM_SO!B395:C398,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B394,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C394" t="str">
@@ -13740,7 +13767,7 @@
         <v/>
       </c>
       <c r="B395" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B395,THAM_SO!B396:C399,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B395,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C395" t="str">
@@ -13770,7 +13797,7 @@
         <v/>
       </c>
       <c r="B396" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B396,THAM_SO!B397:C400,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B396,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C396" t="str">
@@ -13800,7 +13827,7 @@
         <v/>
       </c>
       <c r="B397" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B397,THAM_SO!B398:C401,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B397,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C397" t="str">
@@ -13830,7 +13857,7 @@
         <v/>
       </c>
       <c r="B398" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B398,THAM_SO!B399:C402,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B398,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C398" t="str">
@@ -13860,7 +13887,7 @@
         <v/>
       </c>
       <c r="B399" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B399,THAM_SO!B400:C403,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B399,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C399" t="str">
@@ -13890,7 +13917,7 @@
         <v/>
       </c>
       <c r="B400" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B400,THAM_SO!B401:C404,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B400,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C400" t="str">
@@ -13920,7 +13947,7 @@
         <v/>
       </c>
       <c r="B401" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B401,THAM_SO!B402:C405,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B401,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C401" t="str">
@@ -13950,7 +13977,7 @@
         <v/>
       </c>
       <c r="B402" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B402,THAM_SO!B403:C406,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B402,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C402" t="str">
@@ -13980,7 +14007,7 @@
         <v/>
       </c>
       <c r="B403" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B403,THAM_SO!B404:C407,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B403,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C403" t="str">
@@ -14010,7 +14037,7 @@
         <v/>
       </c>
       <c r="B404" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B404,THAM_SO!B405:C408,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B404,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C404" t="str">
@@ -14040,7 +14067,7 @@
         <v/>
       </c>
       <c r="B405" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B405,THAM_SO!B406:C409,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B405,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C405" t="str">
@@ -14070,7 +14097,7 @@
         <v/>
       </c>
       <c r="B406" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B406,THAM_SO!B407:C410,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B406,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C406" t="str">
@@ -14100,7 +14127,7 @@
         <v/>
       </c>
       <c r="B407" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B407,THAM_SO!B408:C411,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B407,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C407" t="str">
@@ -14130,7 +14157,7 @@
         <v/>
       </c>
       <c r="B408" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B408,THAM_SO!B409:C412,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B408,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C408" t="str">
@@ -14160,7 +14187,7 @@
         <v/>
       </c>
       <c r="B409" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B409,THAM_SO!B410:C413,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B409,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C409" t="str">
@@ -14190,7 +14217,7 @@
         <v/>
       </c>
       <c r="B410" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B410,THAM_SO!B411:C414,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B410,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C410" t="str">
@@ -14220,7 +14247,7 @@
         <v/>
       </c>
       <c r="B411" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B411,THAM_SO!B412:C415,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B411,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C411" t="str">
@@ -14250,7 +14277,7 @@
         <v/>
       </c>
       <c r="B412" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B412,THAM_SO!B413:C416,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B412,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C412" t="str">
@@ -14280,7 +14307,7 @@
         <v/>
       </c>
       <c r="B413" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B413,THAM_SO!B414:C417,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B413,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C413" t="str">
@@ -14310,7 +14337,7 @@
         <v/>
       </c>
       <c r="B414" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B414,THAM_SO!B415:C418,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B414,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C414" t="str">
@@ -14340,7 +14367,7 @@
         <v/>
       </c>
       <c r="B415" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B415,THAM_SO!B416:C419,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B415,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C415" t="str">
@@ -14370,7 +14397,7 @@
         <v/>
       </c>
       <c r="B416" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B416,THAM_SO!B417:C420,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B416,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C416" t="str">
@@ -14400,7 +14427,7 @@
         <v/>
       </c>
       <c r="B417" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B417,THAM_SO!B418:C421,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B417,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C417" t="str">
@@ -14430,7 +14457,7 @@
         <v/>
       </c>
       <c r="B418" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B418,THAM_SO!B419:C422,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B418,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C418" t="str">
@@ -14460,7 +14487,7 @@
         <v/>
       </c>
       <c r="B419" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B419,THAM_SO!B420:C423,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B419,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C419" t="str">
@@ -14490,7 +14517,7 @@
         <v/>
       </c>
       <c r="B420" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B420,THAM_SO!B421:C424,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B420,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C420" t="str">
@@ -14520,7 +14547,7 @@
         <v/>
       </c>
       <c r="B421" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B421,THAM_SO!B422:C425,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B421,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C421" t="str">
@@ -14550,7 +14577,7 @@
         <v/>
       </c>
       <c r="B422" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B422,THAM_SO!B423:C426,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B422,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C422" t="str">
@@ -14580,7 +14607,7 @@
         <v/>
       </c>
       <c r="B423" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B423,THAM_SO!B424:C427,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B423,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C423" t="str">
@@ -14610,7 +14637,7 @@
         <v/>
       </c>
       <c r="B424" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B424,THAM_SO!B425:C428,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B424,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C424" t="str">
@@ -14640,7 +14667,7 @@
         <v/>
       </c>
       <c r="B425" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B425,THAM_SO!B426:C429,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B425,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C425" t="str">
@@ -14670,7 +14697,7 @@
         <v/>
       </c>
       <c r="B426" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B426,THAM_SO!B427:C430,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B426,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C426" t="str">
@@ -14700,7 +14727,7 @@
         <v/>
       </c>
       <c r="B427" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B427,THAM_SO!B428:C431,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B427,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C427" t="str">
@@ -14730,7 +14757,7 @@
         <v/>
       </c>
       <c r="B428" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B428,THAM_SO!B429:C432,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B428,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C428" t="str">
@@ -14760,7 +14787,7 @@
         <v/>
       </c>
       <c r="B429" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B429,THAM_SO!B430:C433,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B429,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C429" t="str">
@@ -14790,7 +14817,7 @@
         <v/>
       </c>
       <c r="B430" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B430,THAM_SO!B431:C434,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B430,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C430" t="str">
@@ -14820,7 +14847,7 @@
         <v/>
       </c>
       <c r="B431" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B431,THAM_SO!B432:C435,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B431,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C431" t="str">
@@ -14850,7 +14877,7 @@
         <v/>
       </c>
       <c r="B432" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B432,THAM_SO!B433:C436,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B432,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C432" t="str">
@@ -14880,7 +14907,7 @@
         <v/>
       </c>
       <c r="B433" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B433,THAM_SO!B434:C437,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B433,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C433" t="str">
@@ -14910,7 +14937,7 @@
         <v/>
       </c>
       <c r="B434" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B434,THAM_SO!B435:C438,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B434,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C434" t="str">
@@ -14940,7 +14967,7 @@
         <v/>
       </c>
       <c r="B435" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B435,THAM_SO!B436:C439,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B435,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C435" t="str">
@@ -14970,7 +14997,7 @@
         <v/>
       </c>
       <c r="B436" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B436,THAM_SO!B437:C440,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B436,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C436" t="str">
@@ -15000,7 +15027,7 @@
         <v/>
       </c>
       <c r="B437" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B437,THAM_SO!B438:C441,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B437,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C437" t="str">
@@ -15030,7 +15057,7 @@
         <v/>
       </c>
       <c r="B438" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B438,THAM_SO!B439:C442,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B438,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C438" t="str">
@@ -15060,7 +15087,7 @@
         <v/>
       </c>
       <c r="B439" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B439,THAM_SO!B440:C443,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B439,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C439" t="str">
@@ -15090,7 +15117,7 @@
         <v/>
       </c>
       <c r="B440" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B440,THAM_SO!B441:C444,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B440,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C440" t="str">
@@ -15120,7 +15147,7 @@
         <v/>
       </c>
       <c r="B441" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B441,THAM_SO!B442:C445,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B441,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C441" t="str">
@@ -15150,7 +15177,7 @@
         <v/>
       </c>
       <c r="B442" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B442,THAM_SO!B443:C446,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B442,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C442" t="str">
@@ -15180,7 +15207,7 @@
         <v/>
       </c>
       <c r="B443" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B443,THAM_SO!B444:C447,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B443,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C443" t="str">
@@ -15210,7 +15237,7 @@
         <v/>
       </c>
       <c r="B444" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B444,THAM_SO!B445:C448,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B444,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C444" t="str">
@@ -15240,7 +15267,7 @@
         <v/>
       </c>
       <c r="B445" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B445,THAM_SO!B446:C449,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B445,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C445" t="str">
@@ -15270,7 +15297,7 @@
         <v/>
       </c>
       <c r="B446" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B446,THAM_SO!B447:C450,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B446,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C446" t="str">
@@ -15300,7 +15327,7 @@
         <v/>
       </c>
       <c r="B447" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B447,THAM_SO!B448:C451,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B447,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C447" t="str">
@@ -15330,7 +15357,7 @@
         <v/>
       </c>
       <c r="B448" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B448,THAM_SO!B449:C452,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B448,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C448" t="str">
@@ -15360,7 +15387,7 @@
         <v/>
       </c>
       <c r="B449" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B449,THAM_SO!B450:C453,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B449,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C449" t="str">
@@ -15390,7 +15417,7 @@
         <v/>
       </c>
       <c r="B450" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B450,THAM_SO!B451:C454,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B450,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C450" t="str">
@@ -15420,7 +15447,7 @@
         <v/>
       </c>
       <c r="B451" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B451,THAM_SO!B452:C455,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B451,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C451" t="str">
@@ -15450,7 +15477,7 @@
         <v/>
       </c>
       <c r="B452" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B452,THAM_SO!B453:C456,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B452,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C452" t="str">
@@ -15480,7 +15507,7 @@
         <v/>
       </c>
       <c r="B453" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B453,THAM_SO!B454:C457,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B453,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C453" t="str">
@@ -15510,7 +15537,7 @@
         <v/>
       </c>
       <c r="B454" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B454,THAM_SO!B455:C458,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B454,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C454" t="str">
@@ -15540,7 +15567,7 @@
         <v/>
       </c>
       <c r="B455" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B455,THAM_SO!B456:C459,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B455,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C455" t="str">
@@ -15570,7 +15597,7 @@
         <v/>
       </c>
       <c r="B456" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B456,THAM_SO!B457:C460,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B456,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C456" t="str">
@@ -15600,7 +15627,7 @@
         <v/>
       </c>
       <c r="B457" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B457,THAM_SO!B458:C461,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B457,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C457" t="str">
@@ -15630,7 +15657,7 @@
         <v/>
       </c>
       <c r="B458" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B458,THAM_SO!B459:C462,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B458,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C458" t="str">
@@ -15660,7 +15687,7 @@
         <v/>
       </c>
       <c r="B459" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B459,THAM_SO!B460:C463,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B459,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C459" t="str">
@@ -15690,7 +15717,7 @@
         <v/>
       </c>
       <c r="B460" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B460,THAM_SO!B461:C464,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B460,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C460" t="str">
@@ -15720,7 +15747,7 @@
         <v/>
       </c>
       <c r="B461" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B461,THAM_SO!B462:C465,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B461,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C461" t="str">
@@ -15750,7 +15777,7 @@
         <v/>
       </c>
       <c r="B462" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B462,THAM_SO!B463:C466,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B462,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C462" t="str">
@@ -15780,7 +15807,7 @@
         <v/>
       </c>
       <c r="B463" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B463,THAM_SO!B464:C467,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B463,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C463" t="str">
@@ -15810,7 +15837,7 @@
         <v/>
       </c>
       <c r="B464" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B464,THAM_SO!B465:C468,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B464,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C464" t="str">
@@ -15840,7 +15867,7 @@
         <v/>
       </c>
       <c r="B465" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B465,THAM_SO!B466:C469,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B465,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C465" t="str">
@@ -15870,7 +15897,7 @@
         <v/>
       </c>
       <c r="B466" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B466,THAM_SO!B467:C470,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B466,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C466" t="str">
@@ -15900,7 +15927,7 @@
         <v/>
       </c>
       <c r="B467" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B467,THAM_SO!B468:C471,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B467,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C467" t="str">
@@ -15930,7 +15957,7 @@
         <v/>
       </c>
       <c r="B468" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B468,THAM_SO!B469:C472,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B468,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C468" t="str">
@@ -15960,7 +15987,7 @@
         <v/>
       </c>
       <c r="B469" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B469,THAM_SO!B470:C473,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B469,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C469" t="str">
@@ -15990,7 +16017,7 @@
         <v/>
       </c>
       <c r="B470" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B470,THAM_SO!B471:C474,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B470,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C470" t="str">
@@ -16020,7 +16047,7 @@
         <v/>
       </c>
       <c r="B471" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B471,THAM_SO!B472:C475,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B471,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C471" t="str">
@@ -16050,7 +16077,7 @@
         <v/>
       </c>
       <c r="B472" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B472,THAM_SO!B473:C476,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B472,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C472" t="str">
@@ -16080,7 +16107,7 @@
         <v/>
       </c>
       <c r="B473" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B473,THAM_SO!B474:C477,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B473,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C473" t="str">
@@ -16110,7 +16137,7 @@
         <v/>
       </c>
       <c r="B474" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B474,THAM_SO!B475:C478,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B474,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C474" t="str">
@@ -16140,7 +16167,7 @@
         <v/>
       </c>
       <c r="B475" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B475,THAM_SO!B476:C479,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B475,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C475" t="str">
@@ -16170,7 +16197,7 @@
         <v/>
       </c>
       <c r="B476" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B476,THAM_SO!B477:C480,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B476,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C476" t="str">
@@ -16200,7 +16227,7 @@
         <v/>
       </c>
       <c r="B477" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B477,THAM_SO!B478:C481,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B477,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C477" t="str">
@@ -16230,7 +16257,7 @@
         <v/>
       </c>
       <c r="B478" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B478,THAM_SO!B479:C482,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B478,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C478" t="str">
@@ -16260,7 +16287,7 @@
         <v/>
       </c>
       <c r="B479" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B479,THAM_SO!B480:C483,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B479,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C479" t="str">
@@ -16290,7 +16317,7 @@
         <v/>
       </c>
       <c r="B480" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B480,THAM_SO!B481:C484,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B480,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C480" t="str">
@@ -16320,7 +16347,7 @@
         <v/>
       </c>
       <c r="B481" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B481,THAM_SO!B482:C485,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B481,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C481" t="str">
@@ -16350,7 +16377,7 @@
         <v/>
       </c>
       <c r="B482" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B482,THAM_SO!B483:C486,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B482,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C482" t="str">
@@ -16380,7 +16407,7 @@
         <v/>
       </c>
       <c r="B483" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B483,THAM_SO!B484:C487,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B483,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C483" t="str">
@@ -16410,7 +16437,7 @@
         <v/>
       </c>
       <c r="B484" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B484,THAM_SO!B485:C488,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B484,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C484" t="str">
@@ -16440,7 +16467,7 @@
         <v/>
       </c>
       <c r="B485" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B485,THAM_SO!B486:C489,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B485,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C485" t="str">
@@ -16470,7 +16497,7 @@
         <v/>
       </c>
       <c r="B486" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B486,THAM_SO!B487:C490,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B486,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C486" t="str">
@@ -16500,7 +16527,7 @@
         <v/>
       </c>
       <c r="B487" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B487,THAM_SO!B488:C491,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B487,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C487" t="str">
@@ -16530,7 +16557,7 @@
         <v/>
       </c>
       <c r="B488" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B488,THAM_SO!B489:C492,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B488,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C488" t="str">
@@ -16560,7 +16587,7 @@
         <v/>
       </c>
       <c r="B489" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B489,THAM_SO!B490:C493,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B489,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C489" t="str">
@@ -16590,7 +16617,7 @@
         <v/>
       </c>
       <c r="B490" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B490,THAM_SO!B491:C494,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B490,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C490" t="str">
@@ -16620,7 +16647,7 @@
         <v/>
       </c>
       <c r="B491" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B491,THAM_SO!B492:C495,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B491,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C491" t="str">
@@ -16650,7 +16677,7 @@
         <v/>
       </c>
       <c r="B492" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B492,THAM_SO!B493:C496,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B492,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C492" t="str">
@@ -16680,7 +16707,7 @@
         <v/>
       </c>
       <c r="B493" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B493,THAM_SO!B494:C497,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B493,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C493" t="str">
@@ -16710,7 +16737,7 @@
         <v/>
       </c>
       <c r="B494" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B494,THAM_SO!B495:C498,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B494,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C494" t="str">
@@ -16740,7 +16767,7 @@
         <v/>
       </c>
       <c r="B495" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B495,THAM_SO!B496:C499,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B495,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C495" t="str">
@@ -16770,7 +16797,7 @@
         <v/>
       </c>
       <c r="B496" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B496,THAM_SO!B497:C500,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B496,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C496" t="str">
@@ -16800,7 +16827,7 @@
         <v/>
       </c>
       <c r="B497" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B497,THAM_SO!B498:C501,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B497,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C497" t="str">
@@ -16830,7 +16857,7 @@
         <v/>
       </c>
       <c r="B498" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B498,THAM_SO!B499:C502,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B498,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C498" t="str">
@@ -16860,7 +16887,7 @@
         <v/>
       </c>
       <c r="B499" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B499,THAM_SO!B500:C503,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B499,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C499" t="str">
@@ -16890,7 +16917,7 @@
         <v/>
       </c>
       <c r="B500" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B500,THAM_SO!B501:C504,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B500,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C500" t="str">
@@ -16920,7 +16947,7 @@
         <v/>
       </c>
       <c r="B501" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B501,THAM_SO!B502:C505,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B501,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C501" t="str">
@@ -16950,7 +16977,7 @@
         <v/>
       </c>
       <c r="B502" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B502,THAM_SO!B503:C506,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B502,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C502" t="str">
@@ -16980,7 +17007,7 @@
         <v/>
       </c>
       <c r="B503" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B503,THAM_SO!B504:C507,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B503,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C503" t="str">
@@ -17010,7 +17037,7 @@
         <v/>
       </c>
       <c r="B504" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B504,THAM_SO!B505:C508,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B504,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C504" t="str">
@@ -17040,7 +17067,7 @@
         <v/>
       </c>
       <c r="B505" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B505,THAM_SO!B506:C509,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B505,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C505" t="str">
@@ -17070,7 +17097,7 @@
         <v/>
       </c>
       <c r="B506" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B506,THAM_SO!B507:C510,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B506,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C506" t="str">
@@ -17100,7 +17127,7 @@
         <v/>
       </c>
       <c r="B507" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B507,THAM_SO!B508:C511,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B507,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C507" t="str">
@@ -17130,7 +17157,7 @@
         <v/>
       </c>
       <c r="B508" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B508,THAM_SO!B509:C512,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B508,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C508" t="str">
@@ -17160,7 +17187,7 @@
         <v/>
       </c>
       <c r="B509" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B509,THAM_SO!B510:C513,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B509,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C509" t="str">
@@ -17190,7 +17217,7 @@
         <v/>
       </c>
       <c r="B510" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B510,THAM_SO!B511:C514,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B510,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C510" t="str">
@@ -17220,7 +17247,7 @@
         <v/>
       </c>
       <c r="B511" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B511,THAM_SO!B512:C515,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B511,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C511" t="str">
@@ -17250,7 +17277,7 @@
         <v/>
       </c>
       <c r="B512" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B512,THAM_SO!B513:C516,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B512,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C512" t="str">
@@ -17280,7 +17307,7 @@
         <v/>
       </c>
       <c r="B513" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B513,THAM_SO!B514:C517,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B513,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C513" t="str">
@@ -17310,7 +17337,7 @@
         <v/>
       </c>
       <c r="B514" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B514,THAM_SO!B515:C518,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B514,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C514" t="str">
@@ -17340,7 +17367,7 @@
         <v/>
       </c>
       <c r="B515" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B515,THAM_SO!B516:C519,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B515,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C515" t="str">
@@ -17370,7 +17397,7 @@
         <v/>
       </c>
       <c r="B516" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B516,THAM_SO!B517:C520,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B516,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C516" t="str">
@@ -17400,7 +17427,7 @@
         <v/>
       </c>
       <c r="B517" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B517,THAM_SO!B518:C521,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B517,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C517" t="str">
@@ -17430,7 +17457,7 @@
         <v/>
       </c>
       <c r="B518" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B518,THAM_SO!B519:C522,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B518,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C518" t="str">
@@ -17460,7 +17487,7 @@
         <v/>
       </c>
       <c r="B519" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B519,THAM_SO!B520:C523,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B519,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C519" t="str">
@@ -17490,7 +17517,7 @@
         <v/>
       </c>
       <c r="B520" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B520,THAM_SO!B521:C524,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B520,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C520" t="str">
@@ -17520,7 +17547,7 @@
         <v/>
       </c>
       <c r="B521" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B521,THAM_SO!B522:C525,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B521,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C521" t="str">
@@ -17550,7 +17577,7 @@
         <v/>
       </c>
       <c r="B522" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B522,THAM_SO!B523:C526,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B522,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C522" t="str">
@@ -17580,7 +17607,7 @@
         <v/>
       </c>
       <c r="B523" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B523,THAM_SO!B524:C527,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B523,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C523" t="str">
@@ -17610,7 +17637,7 @@
         <v/>
       </c>
       <c r="B524" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B524,THAM_SO!B525:C528,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B524,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C524" t="str">
@@ -17640,7 +17667,7 @@
         <v/>
       </c>
       <c r="B525" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B525,THAM_SO!B526:C529,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B525,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C525" t="str">
@@ -17670,7 +17697,7 @@
         <v/>
       </c>
       <c r="B526" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B526,THAM_SO!B527:C530,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B526,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C526" t="str">
@@ -17700,7 +17727,7 @@
         <v/>
       </c>
       <c r="B527" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B527,THAM_SO!B528:C531,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B527,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C527" t="str">
@@ -17730,7 +17757,7 @@
         <v/>
       </c>
       <c r="B528" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B528,THAM_SO!B529:C532,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B528,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C528" t="str">
@@ -17760,7 +17787,7 @@
         <v/>
       </c>
       <c r="B529" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B529,THAM_SO!B530:C533,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B529,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C529" t="str">
@@ -17790,7 +17817,7 @@
         <v/>
       </c>
       <c r="B530" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B530,THAM_SO!B531:C534,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B530,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C530" t="str">
@@ -17820,7 +17847,7 @@
         <v/>
       </c>
       <c r="B531" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B531,THAM_SO!B532:C535,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B531,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C531" t="str">
@@ -17850,7 +17877,7 @@
         <v/>
       </c>
       <c r="B532" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B532,THAM_SO!B533:C536,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B532,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C532" t="str">
@@ -17880,7 +17907,7 @@
         <v/>
       </c>
       <c r="B533" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B533,THAM_SO!B534:C537,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B533,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C533" t="str">
@@ -17910,7 +17937,7 @@
         <v/>
       </c>
       <c r="B534" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B534,THAM_SO!B535:C538,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B534,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C534" t="str">
@@ -17940,7 +17967,7 @@
         <v/>
       </c>
       <c r="B535" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B535,THAM_SO!B536:C539,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B535,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C535" t="str">
@@ -17970,7 +17997,7 @@
         <v/>
       </c>
       <c r="B536" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B536,THAM_SO!B537:C540,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B536,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C536" t="str">
@@ -18000,7 +18027,7 @@
         <v/>
       </c>
       <c r="B537" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B537,THAM_SO!B538:C541,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B537,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C537" t="str">
@@ -18030,7 +18057,7 @@
         <v/>
       </c>
       <c r="B538" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B538,THAM_SO!B539:C542,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B538,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C538" t="str">
@@ -18060,7 +18087,7 @@
         <v/>
       </c>
       <c r="B539" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B539,THAM_SO!B540:C543,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B539,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C539" t="str">
@@ -18090,7 +18117,7 @@
         <v/>
       </c>
       <c r="B540" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B540,THAM_SO!B541:C544,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B540,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C540" t="str">
@@ -18120,7 +18147,7 @@
         <v/>
       </c>
       <c r="B541" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B541,THAM_SO!B542:C545,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B541,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C541" t="str">
@@ -18150,7 +18177,7 @@
         <v/>
       </c>
       <c r="B542" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B542,THAM_SO!B543:C546,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B542,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C542" t="str">
@@ -18180,7 +18207,7 @@
         <v/>
       </c>
       <c r="B543" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B543,THAM_SO!B544:C547,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B543,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C543" t="str">
@@ -18210,7 +18237,7 @@
         <v/>
       </c>
       <c r="B544" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B544,THAM_SO!B545:C548,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B544,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C544" t="str">
@@ -18240,7 +18267,7 @@
         <v/>
       </c>
       <c r="B545" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B545,THAM_SO!B546:C549,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B545,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C545" t="str">
@@ -18270,7 +18297,7 @@
         <v/>
       </c>
       <c r="B546" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B546,THAM_SO!B547:C550,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B546,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C546" t="str">
@@ -18300,7 +18327,7 @@
         <v/>
       </c>
       <c r="B547" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B547,THAM_SO!B548:C551,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B547,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C547" t="str">
@@ -18330,7 +18357,7 @@
         <v/>
       </c>
       <c r="B548" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B548,THAM_SO!B549:C552,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B548,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C548" t="str">
@@ -18360,7 +18387,7 @@
         <v/>
       </c>
       <c r="B549" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B549,THAM_SO!B550:C553,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B549,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C549" t="str">
@@ -18390,7 +18417,7 @@
         <v/>
       </c>
       <c r="B550" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B550,THAM_SO!B551:C554,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B550,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C550" t="str">
@@ -18420,7 +18447,7 @@
         <v/>
       </c>
       <c r="B551" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B551,THAM_SO!B552:C555,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B551,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C551" t="str">
@@ -18450,7 +18477,7 @@
         <v/>
       </c>
       <c r="B552" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B552,THAM_SO!B553:C556,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B552,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C552" t="str">
@@ -18480,7 +18507,7 @@
         <v/>
       </c>
       <c r="B553" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B553,THAM_SO!B554:C557,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B553,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C553" t="str">
@@ -18510,7 +18537,7 @@
         <v/>
       </c>
       <c r="B554" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B554,THAM_SO!B555:C558,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B554,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C554" t="str">
@@ -18540,7 +18567,7 @@
         <v/>
       </c>
       <c r="B555" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B555,THAM_SO!B556:C559,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B555,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C555" t="str">
@@ -18570,7 +18597,7 @@
         <v/>
       </c>
       <c r="B556" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B556,THAM_SO!B557:C560,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B556,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C556" t="str">
@@ -18600,7 +18627,7 @@
         <v/>
       </c>
       <c r="B557" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B557,THAM_SO!B558:C561,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B557,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C557" t="str">
@@ -18630,7 +18657,7 @@
         <v/>
       </c>
       <c r="B558" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B558,THAM_SO!B559:C562,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B558,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C558" t="str">
@@ -18660,7 +18687,7 @@
         <v/>
       </c>
       <c r="B559" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B559,THAM_SO!B560:C563,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B559,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C559" t="str">
@@ -18690,7 +18717,7 @@
         <v/>
       </c>
       <c r="B560" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B560,THAM_SO!B561:C564,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B560,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C560" t="str">
@@ -18720,7 +18747,7 @@
         <v/>
       </c>
       <c r="B561" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B561,THAM_SO!B562:C565,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B561,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C561" t="str">
@@ -18750,7 +18777,7 @@
         <v/>
       </c>
       <c r="B562" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B562,THAM_SO!B563:C566,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B562,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C562" t="str">
@@ -18780,7 +18807,7 @@
         <v/>
       </c>
       <c r="B563" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B563,THAM_SO!B564:C567,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B563,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C563" t="str">
@@ -18810,7 +18837,7 @@
         <v/>
       </c>
       <c r="B564" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B564,THAM_SO!B565:C568,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B564,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C564" t="str">
@@ -18840,7 +18867,7 @@
         <v/>
       </c>
       <c r="B565" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B565,THAM_SO!B566:C569,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B565,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C565" t="str">
@@ -18870,7 +18897,7 @@
         <v/>
       </c>
       <c r="B566" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B566,THAM_SO!B567:C570,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B566,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C566" t="str">
@@ -18900,7 +18927,7 @@
         <v/>
       </c>
       <c r="B567" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B567,THAM_SO!B568:C571,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B567,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C567" t="str">
@@ -18930,7 +18957,7 @@
         <v/>
       </c>
       <c r="B568" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B568,THAM_SO!B569:C572,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B568,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C568" t="str">
@@ -18960,7 +18987,7 @@
         <v/>
       </c>
       <c r="B569" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B569,THAM_SO!B570:C573,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B569,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C569" t="str">
@@ -18990,7 +19017,7 @@
         <v/>
       </c>
       <c r="B570" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B570,THAM_SO!B571:C574,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B570,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C570" t="str">
@@ -19020,7 +19047,7 @@
         <v/>
       </c>
       <c r="B571" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B571,THAM_SO!B572:C575,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B571,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C571" t="str">
@@ -19050,7 +19077,7 @@
         <v/>
       </c>
       <c r="B572" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B572,THAM_SO!B573:C576,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B572,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C572" t="str">
@@ -19080,7 +19107,7 @@
         <v/>
       </c>
       <c r="B573" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B573,THAM_SO!B574:C577,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B573,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C573" t="str">
@@ -19110,7 +19137,7 @@
         <v/>
       </c>
       <c r="B574" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B574,THAM_SO!B575:C578,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B574,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C574" t="str">
@@ -19140,7 +19167,7 @@
         <v/>
       </c>
       <c r="B575" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B575,THAM_SO!B576:C579,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B575,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C575" t="str">
@@ -19170,7 +19197,7 @@
         <v/>
       </c>
       <c r="B576" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B576,THAM_SO!B577:C580,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B576,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C576" t="str">
@@ -19200,7 +19227,7 @@
         <v/>
       </c>
       <c r="B577" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B577,THAM_SO!B578:C581,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B577,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C577" t="str">
@@ -19230,7 +19257,7 @@
         <v/>
       </c>
       <c r="B578" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B578,THAM_SO!B579:C582,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B578,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C578" t="str">
@@ -19260,7 +19287,7 @@
         <v/>
       </c>
       <c r="B579" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B579,THAM_SO!B580:C583,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B579,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C579" t="str">
@@ -19290,7 +19317,7 @@
         <v/>
       </c>
       <c r="B580" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B580,THAM_SO!B581:C584,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B580,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C580" t="str">
@@ -19320,7 +19347,7 @@
         <v/>
       </c>
       <c r="B581" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B581,THAM_SO!B582:C585,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B581,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C581" t="str">
@@ -19350,7 +19377,7 @@
         <v/>
       </c>
       <c r="B582" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B582,THAM_SO!B583:C586,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B582,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C582" t="str">
@@ -19380,7 +19407,7 @@
         <v/>
       </c>
       <c r="B583" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B583,THAM_SO!B584:C587,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B583,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C583" t="str">
@@ -19410,7 +19437,7 @@
         <v/>
       </c>
       <c r="B584" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B584,THAM_SO!B585:C588,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B584,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C584" t="str">
@@ -19440,7 +19467,7 @@
         <v/>
       </c>
       <c r="B585" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B585,THAM_SO!B586:C589,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B585,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C585" t="str">
@@ -19470,7 +19497,7 @@
         <v/>
       </c>
       <c r="B586" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B586,THAM_SO!B587:C590,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B586,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C586" t="str">
@@ -19500,7 +19527,7 @@
         <v/>
       </c>
       <c r="B587" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B587,THAM_SO!B588:C591,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B587,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C587" t="str">
@@ -19530,7 +19557,7 @@
         <v/>
       </c>
       <c r="B588" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B588,THAM_SO!B589:C592,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B588,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C588" t="str">
@@ -19560,7 +19587,7 @@
         <v/>
       </c>
       <c r="B589" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B589,THAM_SO!B590:C593,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B589,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C589" t="str">
@@ -19590,7 +19617,7 @@
         <v/>
       </c>
       <c r="B590" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B590,THAM_SO!B591:C594,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B590,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C590" t="str">
@@ -19620,7 +19647,7 @@
         <v/>
       </c>
       <c r="B591" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B591,THAM_SO!B592:C595,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B591,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C591" t="str">
@@ -19650,7 +19677,7 @@
         <v/>
       </c>
       <c r="B592" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B592,THAM_SO!B593:C596,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B592,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C592" t="str">
@@ -19680,7 +19707,7 @@
         <v/>
       </c>
       <c r="B593" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B593,THAM_SO!B594:C597,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B593,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C593" t="str">
@@ -19710,7 +19737,7 @@
         <v/>
       </c>
       <c r="B594" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B594,THAM_SO!B595:C598,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B594,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C594" t="str">
@@ -19740,7 +19767,7 @@
         <v/>
       </c>
       <c r="B595" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B595,THAM_SO!B596:C599,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B595,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C595" t="str">
@@ -19770,7 +19797,7 @@
         <v/>
       </c>
       <c r="B596" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B596,THAM_SO!B597:C600,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B596,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C596" t="str">
@@ -19800,7 +19827,7 @@
         <v/>
       </c>
       <c r="B597" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B597,THAM_SO!B598:C601,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B597,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C597" t="str">
@@ -19830,7 +19857,7 @@
         <v/>
       </c>
       <c r="B598" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B598,THAM_SO!B599:C602,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B598,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C598" t="str">
@@ -19860,7 +19887,7 @@
         <v/>
       </c>
       <c r="B599" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B599,THAM_SO!B600:C603,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B599,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C599" t="str">
@@ -19890,7 +19917,7 @@
         <v/>
       </c>
       <c r="B600" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B600,THAM_SO!B601:C604,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B600,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C600" t="str">
@@ -19920,7 +19947,7 @@
         <v/>
       </c>
       <c r="B601" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B601,THAM_SO!B602:C605,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B601,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C601" t="str">
@@ -19950,7 +19977,7 @@
         <v/>
       </c>
       <c r="B602" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B602,THAM_SO!B603:C606,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B602,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C602" t="str">
@@ -19980,7 +20007,7 @@
         <v/>
       </c>
       <c r="B603" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B603,THAM_SO!B604:C607,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B603,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C603" t="str">
@@ -20010,7 +20037,7 @@
         <v/>
       </c>
       <c r="B604" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B604,THAM_SO!B605:C608,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B604,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C604" t="str">
@@ -20040,7 +20067,7 @@
         <v/>
       </c>
       <c r="B605" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B605,THAM_SO!B606:C609,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B605,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C605" t="str">
@@ -20070,7 +20097,7 @@
         <v/>
       </c>
       <c r="B606" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B606,THAM_SO!B607:C610,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B606,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C606" t="str">
@@ -20100,7 +20127,7 @@
         <v/>
       </c>
       <c r="B607" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B607,THAM_SO!B608:C611,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B607,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C607" t="str">
@@ -20130,7 +20157,7 @@
         <v/>
       </c>
       <c r="B608" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B608,THAM_SO!B609:C612,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B608,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C608" t="str">
@@ -20160,7 +20187,7 @@
         <v/>
       </c>
       <c r="B609" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B609,THAM_SO!B610:C613,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B609,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C609" t="str">
@@ -20190,7 +20217,7 @@
         <v/>
       </c>
       <c r="B610" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B610,THAM_SO!B611:C614,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B610,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C610" t="str">
@@ -20220,7 +20247,7 @@
         <v/>
       </c>
       <c r="B611" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B611,THAM_SO!B612:C615,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B611,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C611" t="str">
@@ -20250,7 +20277,7 @@
         <v/>
       </c>
       <c r="B612" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B612,THAM_SO!B613:C616,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B612,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C612" t="str">
@@ -20280,7 +20307,7 @@
         <v/>
       </c>
       <c r="B613" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B613,THAM_SO!B614:C617,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B613,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C613" t="str">
@@ -20310,7 +20337,7 @@
         <v/>
       </c>
       <c r="B614" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B614,THAM_SO!B615:C618,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B614,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C614" t="str">
@@ -20340,7 +20367,7 @@
         <v/>
       </c>
       <c r="B615" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B615,THAM_SO!B616:C619,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B615,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C615" t="str">
@@ -20370,7 +20397,7 @@
         <v/>
       </c>
       <c r="B616" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B616,THAM_SO!B617:C620,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B616,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C616" t="str">
@@ -20400,7 +20427,7 @@
         <v/>
       </c>
       <c r="B617" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B617,THAM_SO!B618:C621,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B617,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C617" t="str">
@@ -20430,7 +20457,7 @@
         <v/>
       </c>
       <c r="B618" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B618,THAM_SO!B619:C622,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B618,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C618" t="str">
@@ -20460,7 +20487,7 @@
         <v/>
       </c>
       <c r="B619" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B619,THAM_SO!B620:C623,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B619,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C619" t="str">
@@ -20490,7 +20517,7 @@
         <v/>
       </c>
       <c r="B620" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B620,THAM_SO!B621:C624,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B620,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C620" t="str">
@@ -20520,7 +20547,7 @@
         <v/>
       </c>
       <c r="B621" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B621,THAM_SO!B622:C625,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B621,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C621" t="str">
@@ -20550,7 +20577,7 @@
         <v/>
       </c>
       <c r="B622" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B622,THAM_SO!B623:C626,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B622,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C622" t="str">
@@ -20580,7 +20607,7 @@
         <v/>
       </c>
       <c r="B623" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B623,THAM_SO!B624:C627,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B623,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C623" t="str">
@@ -20610,7 +20637,7 @@
         <v/>
       </c>
       <c r="B624" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B624,THAM_SO!B625:C628,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B624,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C624" t="str">
@@ -20640,7 +20667,7 @@
         <v/>
       </c>
       <c r="B625" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B625,THAM_SO!B626:C629,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B625,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C625" t="str">
@@ -20670,7 +20697,7 @@
         <v/>
       </c>
       <c r="B626" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B626,THAM_SO!B627:C630,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B626,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C626" t="str">
@@ -20700,7 +20727,7 @@
         <v/>
       </c>
       <c r="B627" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B627,THAM_SO!B628:C631,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B627,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C627" t="str">
@@ -20730,7 +20757,7 @@
         <v/>
       </c>
       <c r="B628" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B628,THAM_SO!B629:C632,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B628,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C628" t="str">
@@ -20760,7 +20787,7 @@
         <v/>
       </c>
       <c r="B629" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B629,THAM_SO!B630:C633,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B629,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C629" t="str">
@@ -20790,7 +20817,7 @@
         <v/>
       </c>
       <c r="B630" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B630,THAM_SO!B631:C634,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B630,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C630" t="str">
@@ -20820,7 +20847,7 @@
         <v/>
       </c>
       <c r="B631" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B631,THAM_SO!B632:C635,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B631,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C631" t="str">
@@ -20850,7 +20877,7 @@
         <v/>
       </c>
       <c r="B632" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B632,THAM_SO!B633:C636,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B632,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C632" t="str">
@@ -20880,7 +20907,7 @@
         <v/>
       </c>
       <c r="B633" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B633,THAM_SO!B634:C637,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B633,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C633" t="str">
@@ -20910,7 +20937,7 @@
         <v/>
       </c>
       <c r="B634" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B634,THAM_SO!B635:C638,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B634,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C634" t="str">
@@ -20940,7 +20967,7 @@
         <v/>
       </c>
       <c r="B635" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B635,THAM_SO!B636:C639,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B635,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C635" t="str">
@@ -20970,7 +20997,7 @@
         <v/>
       </c>
       <c r="B636" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B636,THAM_SO!B637:C640,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B636,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C636" t="str">
@@ -21000,7 +21027,7 @@
         <v/>
       </c>
       <c r="B637" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B637,THAM_SO!B638:C641,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B637,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C637" t="str">
@@ -21030,7 +21057,7 @@
         <v/>
       </c>
       <c r="B638" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B638,THAM_SO!B639:C642,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B638,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C638" t="str">
@@ -21060,7 +21087,7 @@
         <v/>
       </c>
       <c r="B639" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B639,THAM_SO!B640:C643,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B639,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C639" t="str">
@@ -21090,7 +21117,7 @@
         <v/>
       </c>
       <c r="B640" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B640,THAM_SO!B641:C644,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B640,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C640" t="str">
@@ -21120,7 +21147,7 @@
         <v/>
       </c>
       <c r="B641" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B641,THAM_SO!B642:C645,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B641,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C641" t="str">
@@ -21150,7 +21177,7 @@
         <v/>
       </c>
       <c r="B642" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B642,THAM_SO!B643:C646,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B642,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C642" t="str">
@@ -21180,7 +21207,7 @@
         <v/>
       </c>
       <c r="B643" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B643,THAM_SO!B644:C647,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B643,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C643" t="str">
@@ -21210,7 +21237,7 @@
         <v/>
       </c>
       <c r="B644" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B644,THAM_SO!B645:C648,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B644,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C644" t="str">
@@ -21240,7 +21267,7 @@
         <v/>
       </c>
       <c r="B645" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B645,THAM_SO!B646:C649,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B645,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C645" t="str">
@@ -21270,7 +21297,7 @@
         <v/>
       </c>
       <c r="B646" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B646,THAM_SO!B647:C650,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B646,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C646" t="str">
@@ -21300,7 +21327,7 @@
         <v/>
       </c>
       <c r="B647" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B647,THAM_SO!B648:C651,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B647,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C647" t="str">
@@ -21330,7 +21357,7 @@
         <v/>
       </c>
       <c r="B648" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B648,THAM_SO!B649:C652,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B648,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C648" t="str">
@@ -21360,7 +21387,7 @@
         <v/>
       </c>
       <c r="B649" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B649,THAM_SO!B650:C653,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B649,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C649" t="str">
@@ -21390,7 +21417,7 @@
         <v/>
       </c>
       <c r="B650" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B650,THAM_SO!B651:C654,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B650,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C650" t="str">
@@ -21420,7 +21447,7 @@
         <v/>
       </c>
       <c r="B651" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B651,THAM_SO!B652:C655,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B651,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C651" t="str">
@@ -21450,7 +21477,7 @@
         <v/>
       </c>
       <c r="B652" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B652,THAM_SO!B653:C656,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B652,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C652" t="str">
@@ -21480,7 +21507,7 @@
         <v/>
       </c>
       <c r="B653" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B653,THAM_SO!B654:C657,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B653,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C653" t="str">
@@ -21510,7 +21537,7 @@
         <v/>
       </c>
       <c r="B654" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B654,THAM_SO!B655:C658,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B654,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C654" t="str">
@@ -21540,7 +21567,7 @@
         <v/>
       </c>
       <c r="B655" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B655,THAM_SO!B656:C659,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B655,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C655" t="str">
@@ -21570,7 +21597,7 @@
         <v/>
       </c>
       <c r="B656" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B656,THAM_SO!B657:C660,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B656,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C656" t="str">
@@ -21600,7 +21627,7 @@
         <v/>
       </c>
       <c r="B657" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B657,THAM_SO!B658:C661,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B657,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C657" t="str">
@@ -21630,7 +21657,7 @@
         <v/>
       </c>
       <c r="B658" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B658,THAM_SO!B659:C662,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B658,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C658" t="str">
@@ -21660,7 +21687,7 @@
         <v/>
       </c>
       <c r="B659" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B659,THAM_SO!B660:C663,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B659,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C659" t="str">
@@ -21690,7 +21717,7 @@
         <v/>
       </c>
       <c r="B660" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B660,THAM_SO!B661:C664,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B660,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C660" t="str">
@@ -21720,7 +21747,7 @@
         <v/>
       </c>
       <c r="B661" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B661,THAM_SO!B662:C665,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B661,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C661" t="str">
@@ -21750,7 +21777,7 @@
         <v/>
       </c>
       <c r="B662" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B662,THAM_SO!B663:C666,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B662,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C662" t="str">
@@ -21780,7 +21807,7 @@
         <v/>
       </c>
       <c r="B663" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B663,THAM_SO!B664:C667,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B663,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C663" t="str">
@@ -21810,7 +21837,7 @@
         <v/>
       </c>
       <c r="B664" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B664,THAM_SO!B665:C668,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B664,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C664" t="str">
@@ -21840,7 +21867,7 @@
         <v/>
       </c>
       <c r="B665" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B665,THAM_SO!B666:C669,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B665,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C665" t="str">
@@ -21870,7 +21897,7 @@
         <v/>
       </c>
       <c r="B666" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B666,THAM_SO!B667:C670,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B666,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C666" t="str">
@@ -21900,7 +21927,7 @@
         <v/>
       </c>
       <c r="B667" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B667,THAM_SO!B668:C671,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B667,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C667" t="str">
@@ -21930,7 +21957,7 @@
         <v/>
       </c>
       <c r="B668" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B668,THAM_SO!B669:C672,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B668,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C668" t="str">
@@ -21960,7 +21987,7 @@
         <v/>
       </c>
       <c r="B669" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B669,THAM_SO!B670:C673,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B669,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C669" t="str">
@@ -21990,7 +22017,7 @@
         <v/>
       </c>
       <c r="B670" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B670,THAM_SO!B671:C674,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B670,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C670" t="str">
@@ -22020,7 +22047,7 @@
         <v/>
       </c>
       <c r="B671" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B671,THAM_SO!B672:C675,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B671,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C671" t="str">
@@ -22050,7 +22077,7 @@
         <v/>
       </c>
       <c r="B672" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B672,THAM_SO!B673:C676,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B672,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C672" t="str">
@@ -22080,7 +22107,7 @@
         <v/>
       </c>
       <c r="B673" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B673,THAM_SO!B674:C677,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B673,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C673" t="str">
@@ -22110,7 +22137,7 @@
         <v/>
       </c>
       <c r="B674" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B674,THAM_SO!B675:C678,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B674,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C674" t="str">
@@ -22140,7 +22167,7 @@
         <v/>
       </c>
       <c r="B675" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B675,THAM_SO!B676:C679,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B675,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C675" t="str">
@@ -22170,7 +22197,7 @@
         <v/>
       </c>
       <c r="B676" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B676,THAM_SO!B677:C680,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B676,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C676" t="str">
@@ -22200,7 +22227,7 @@
         <v/>
       </c>
       <c r="B677" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B677,THAM_SO!B678:C681,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B677,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C677" t="str">
@@ -22230,7 +22257,7 @@
         <v/>
       </c>
       <c r="B678" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B678,THAM_SO!B679:C682,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B678,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C678" t="str">
@@ -22260,7 +22287,7 @@
         <v/>
       </c>
       <c r="B679" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B679,THAM_SO!B680:C683,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B679,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C679" t="str">
@@ -22290,7 +22317,7 @@
         <v/>
       </c>
       <c r="B680" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B680,THAM_SO!B681:C684,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B680,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C680" t="str">
@@ -22320,7 +22347,7 @@
         <v/>
       </c>
       <c r="B681" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B681,THAM_SO!B682:C685,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B681,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C681" t="str">
@@ -22350,7 +22377,7 @@
         <v/>
       </c>
       <c r="B682" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B682,THAM_SO!B683:C686,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B682,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C682" t="str">
@@ -22380,7 +22407,7 @@
         <v/>
       </c>
       <c r="B683" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B683,THAM_SO!B684:C687,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B683,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C683" t="str">
@@ -22410,7 +22437,7 @@
         <v/>
       </c>
       <c r="B684" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B684,THAM_SO!B685:C688,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B684,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C684" t="str">
@@ -22440,7 +22467,7 @@
         <v/>
       </c>
       <c r="B685" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B685,THAM_SO!B686:C689,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B685,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C685" t="str">
@@ -22470,7 +22497,7 @@
         <v/>
       </c>
       <c r="B686" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B686,THAM_SO!B687:C690,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B686,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C686" t="str">
@@ -22500,7 +22527,7 @@
         <v/>
       </c>
       <c r="B687" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B687,THAM_SO!B688:C691,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B687,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C687" t="str">
@@ -22530,7 +22557,7 @@
         <v/>
       </c>
       <c r="B688" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B688,THAM_SO!B689:C692,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B688,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C688" t="str">
@@ -22560,7 +22587,7 @@
         <v/>
       </c>
       <c r="B689" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B689,THAM_SO!B690:C693,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B689,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C689" t="str">
@@ -22590,7 +22617,7 @@
         <v/>
       </c>
       <c r="B690" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B690,THAM_SO!B691:C694,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B690,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C690" t="str">
@@ -22620,7 +22647,7 @@
         <v/>
       </c>
       <c r="B691" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B691,THAM_SO!B692:C695,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B691,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C691" t="str">
@@ -22650,7 +22677,7 @@
         <v/>
       </c>
       <c r="B692" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B692,THAM_SO!B693:C696,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B692,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C692" t="str">
@@ -22680,7 +22707,7 @@
         <v/>
       </c>
       <c r="B693" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B693,THAM_SO!B694:C697,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B693,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C693" t="str">
@@ -22710,7 +22737,7 @@
         <v/>
       </c>
       <c r="B694" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B694,THAM_SO!B695:C698,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B694,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C694" t="str">
@@ -22740,7 +22767,7 @@
         <v/>
       </c>
       <c r="B695" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B695,THAM_SO!B696:C699,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B695,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C695" t="str">
@@ -22770,7 +22797,7 @@
         <v/>
       </c>
       <c r="B696" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B696,THAM_SO!B697:C700,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B696,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C696" t="str">
@@ -22800,7 +22827,7 @@
         <v/>
       </c>
       <c r="B697" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B697,THAM_SO!B698:C701,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B697,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C697" t="str">
@@ -22830,7 +22857,7 @@
         <v/>
       </c>
       <c r="B698" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B698,THAM_SO!B699:C702,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B698,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C698" t="str">
@@ -22860,7 +22887,7 @@
         <v/>
       </c>
       <c r="B699" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B699,THAM_SO!B700:C703,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B699,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C699" t="str">
@@ -22890,7 +22917,7 @@
         <v/>
       </c>
       <c r="B700" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B700,THAM_SO!B701:C704,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B700,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C700" t="str">
@@ -22920,7 +22947,7 @@
         <v/>
       </c>
       <c r="B701" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B701,THAM_SO!B702:C705,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B701,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C701" t="str">
@@ -22950,7 +22977,7 @@
         <v/>
       </c>
       <c r="B702" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B702,THAM_SO!B703:C706,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B702,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C702" t="str">
@@ -22980,7 +23007,7 @@
         <v/>
       </c>
       <c r="B703" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B703,THAM_SO!B704:C707,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B703,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C703" t="str">
@@ -23010,7 +23037,7 @@
         <v/>
       </c>
       <c r="B704" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B704,THAM_SO!B705:C708,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B704,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C704" t="str">
@@ -23040,7 +23067,7 @@
         <v/>
       </c>
       <c r="B705" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B705,THAM_SO!B706:C709,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B705,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C705" t="str">
@@ -23070,7 +23097,7 @@
         <v/>
       </c>
       <c r="B706" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B706,THAM_SO!B707:C710,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B706,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C706" t="str">
@@ -23100,7 +23127,7 @@
         <v/>
       </c>
       <c r="B707" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B707,THAM_SO!B708:C711,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B707,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C707" t="str">
@@ -23130,7 +23157,7 @@
         <v/>
       </c>
       <c r="B708" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B708,THAM_SO!B709:C712,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B708,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C708" t="str">
@@ -23160,7 +23187,7 @@
         <v/>
       </c>
       <c r="B709" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B709,THAM_SO!B710:C713,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B709,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C709" t="str">
@@ -23190,7 +23217,7 @@
         <v/>
       </c>
       <c r="B710" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B710,THAM_SO!B711:C714,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B710,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C710" t="str">
@@ -23220,7 +23247,7 @@
         <v/>
       </c>
       <c r="B711" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B711,THAM_SO!B712:C715,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B711,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C711" t="str">
@@ -23250,7 +23277,7 @@
         <v/>
       </c>
       <c r="B712" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B712,THAM_SO!B713:C716,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B712,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C712" t="str">
@@ -23280,7 +23307,7 @@
         <v/>
       </c>
       <c r="B713" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B713,THAM_SO!B714:C717,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B713,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C713" t="str">
@@ -23310,7 +23337,7 @@
         <v/>
       </c>
       <c r="B714" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B714,THAM_SO!B715:C718,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B714,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C714" t="str">
@@ -23340,7 +23367,7 @@
         <v/>
       </c>
       <c r="B715" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B715,THAM_SO!B716:C719,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B715,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C715" t="str">
@@ -23370,7 +23397,7 @@
         <v/>
       </c>
       <c r="B716" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B716,THAM_SO!B717:C720,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B716,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C716" t="str">
@@ -23400,7 +23427,7 @@
         <v/>
       </c>
       <c r="B717" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B717,THAM_SO!B718:C721,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B717,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C717" t="str">
@@ -23430,7 +23457,7 @@
         <v/>
       </c>
       <c r="B718" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B718,THAM_SO!B719:C722,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B718,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C718" t="str">
@@ -23460,7 +23487,7 @@
         <v/>
       </c>
       <c r="B719" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B719,THAM_SO!B720:C723,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B719,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C719" t="str">
@@ -23490,7 +23517,7 @@
         <v/>
       </c>
       <c r="B720" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B720,THAM_SO!B721:C724,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B720,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C720" t="str">
@@ -23520,7 +23547,7 @@
         <v/>
       </c>
       <c r="B721" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B721,THAM_SO!B722:C725,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B721,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C721" t="str">
@@ -23550,7 +23577,7 @@
         <v/>
       </c>
       <c r="B722" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B722,THAM_SO!B723:C726,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B722,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C722" t="str">
@@ -23580,7 +23607,7 @@
         <v/>
       </c>
       <c r="B723" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B723,THAM_SO!B724:C727,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B723,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C723" t="str">
@@ -23610,7 +23637,7 @@
         <v/>
       </c>
       <c r="B724" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B724,THAM_SO!B725:C728,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B724,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C724" t="str">
@@ -23640,7 +23667,7 @@
         <v/>
       </c>
       <c r="B725" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B725,THAM_SO!B726:C729,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B725,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C725" t="str">
@@ -23670,7 +23697,7 @@
         <v/>
       </c>
       <c r="B726" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B726,THAM_SO!B727:C730,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B726,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C726" t="str">
@@ -23700,7 +23727,7 @@
         <v/>
       </c>
       <c r="B727" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B727,THAM_SO!B728:C731,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B727,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C727" t="str">
@@ -23730,7 +23757,7 @@
         <v/>
       </c>
       <c r="B728" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B728,THAM_SO!B729:C732,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B728,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C728" t="str">
@@ -23760,7 +23787,7 @@
         <v/>
       </c>
       <c r="B729" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B729,THAM_SO!B730:C733,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B729,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C729" t="str">
@@ -23790,7 +23817,7 @@
         <v/>
       </c>
       <c r="B730" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B730,THAM_SO!B731:C734,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B730,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C730" t="str">
@@ -23820,7 +23847,7 @@
         <v/>
       </c>
       <c r="B731" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B731,THAM_SO!B732:C735,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B731,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C731" t="str">
@@ -23850,7 +23877,7 @@
         <v/>
       </c>
       <c r="B732" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B732,THAM_SO!B733:C736,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B732,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C732" t="str">
@@ -23880,7 +23907,7 @@
         <v/>
       </c>
       <c r="B733" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B733,THAM_SO!B734:C737,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B733,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C733" t="str">
@@ -23910,7 +23937,7 @@
         <v/>
       </c>
       <c r="B734" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B734,THAM_SO!B735:C738,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B734,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C734" t="str">
@@ -23940,7 +23967,7 @@
         <v/>
       </c>
       <c r="B735" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B735,THAM_SO!B736:C739,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B735,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C735" t="str">
@@ -23970,7 +23997,7 @@
         <v/>
       </c>
       <c r="B736" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B736,THAM_SO!B737:C740,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B736,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C736" t="str">
@@ -24000,7 +24027,7 @@
         <v/>
       </c>
       <c r="B737" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B737,THAM_SO!B738:C741,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B737,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C737" t="str">
@@ -24030,7 +24057,7 @@
         <v/>
       </c>
       <c r="B738" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B738,THAM_SO!B739:C742,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B738,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C738" t="str">
@@ -24060,7 +24087,7 @@
         <v/>
       </c>
       <c r="B739" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B739,THAM_SO!B740:C743,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B739,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C739" t="str">
@@ -24090,7 +24117,7 @@
         <v/>
       </c>
       <c r="B740" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B740,THAM_SO!B741:C744,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B740,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C740" t="str">
@@ -24120,7 +24147,7 @@
         <v/>
       </c>
       <c r="B741" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B741,THAM_SO!B742:C745,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B741,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C741" t="str">
@@ -24150,7 +24177,7 @@
         <v/>
       </c>
       <c r="B742" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B742,THAM_SO!B743:C746,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B742,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C742" t="str">
@@ -24180,7 +24207,7 @@
         <v/>
       </c>
       <c r="B743" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B743,THAM_SO!B744:C747,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B743,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C743" t="str">
@@ -24210,7 +24237,7 @@
         <v/>
       </c>
       <c r="B744" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B744,THAM_SO!B745:C748,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B744,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C744" t="str">
@@ -24240,7 +24267,7 @@
         <v/>
       </c>
       <c r="B745" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B745,THAM_SO!B746:C749,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B745,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C745" t="str">
@@ -24270,7 +24297,7 @@
         <v/>
       </c>
       <c r="B746" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B746,THAM_SO!B747:C750,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B746,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C746" t="str">
@@ -24300,7 +24327,7 @@
         <v/>
       </c>
       <c r="B747" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B747,THAM_SO!B748:C751,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B747,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C747" t="str">
@@ -24330,7 +24357,7 @@
         <v/>
       </c>
       <c r="B748" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B748,THAM_SO!B749:C752,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B748,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C748" t="str">
@@ -24360,7 +24387,7 @@
         <v/>
       </c>
       <c r="B749" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B749,THAM_SO!B750:C753,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B749,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C749" t="str">
@@ -24390,7 +24417,7 @@
         <v/>
       </c>
       <c r="B750" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B750,THAM_SO!B751:C754,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B750,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C750" t="str">
@@ -24420,7 +24447,7 @@
         <v/>
       </c>
       <c r="B751" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B751,THAM_SO!B752:C755,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B751,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C751" t="str">
@@ -24450,7 +24477,7 @@
         <v/>
       </c>
       <c r="B752" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B752,THAM_SO!B753:C756,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B752,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C752" t="str">
@@ -24480,7 +24507,7 @@
         <v/>
       </c>
       <c r="B753" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B753,THAM_SO!B754:C757,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B753,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C753" t="str">
@@ -24510,7 +24537,7 @@
         <v/>
       </c>
       <c r="B754" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B754,THAM_SO!B755:C758,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B754,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C754" t="str">
@@ -24540,7 +24567,7 @@
         <v/>
       </c>
       <c r="B755" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B755,THAM_SO!B756:C759,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B755,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C755" t="str">
@@ -24570,7 +24597,7 @@
         <v/>
       </c>
       <c r="B756" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B756,THAM_SO!B757:C760,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B756,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C756" t="str">
@@ -24600,7 +24627,7 @@
         <v/>
       </c>
       <c r="B757" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B757,THAM_SO!B758:C761,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B757,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C757" t="str">
@@ -24630,7 +24657,7 @@
         <v/>
       </c>
       <c r="B758" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B758,THAM_SO!B759:C762,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B758,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C758" t="str">
@@ -24660,7 +24687,7 @@
         <v/>
       </c>
       <c r="B759" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B759,THAM_SO!B760:C763,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B759,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C759" t="str">
@@ -24690,7 +24717,7 @@
         <v/>
       </c>
       <c r="B760" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B760,THAM_SO!B761:C764,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B760,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C760" t="str">
@@ -24720,7 +24747,7 @@
         <v/>
       </c>
       <c r="B761" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B761,THAM_SO!B762:C765,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B761,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C761" t="str">
@@ -24750,7 +24777,7 @@
         <v/>
       </c>
       <c r="B762" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B762,THAM_SO!B763:C766,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B762,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C762" t="str">
@@ -24780,7 +24807,7 @@
         <v/>
       </c>
       <c r="B763" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B763,THAM_SO!B764:C767,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B763,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C763" t="str">
@@ -24810,7 +24837,7 @@
         <v/>
       </c>
       <c r="B764" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B764,THAM_SO!B765:C768,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B764,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C764" t="str">
@@ -24840,7 +24867,7 @@
         <v/>
       </c>
       <c r="B765" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B765,THAM_SO!B766:C769,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B765,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C765" t="str">
@@ -24870,7 +24897,7 @@
         <v/>
       </c>
       <c r="B766" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B766,THAM_SO!B767:C770,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B766,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C766" t="str">
@@ -24900,7 +24927,7 @@
         <v/>
       </c>
       <c r="B767" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B767,THAM_SO!B768:C771,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B767,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C767" t="str">
@@ -24930,7 +24957,7 @@
         <v/>
       </c>
       <c r="B768" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B768,THAM_SO!B769:C772,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B768,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C768" t="str">
@@ -24960,7 +24987,7 @@
         <v/>
       </c>
       <c r="B769" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B769,THAM_SO!B770:C773,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B769,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C769" t="str">
@@ -24990,7 +25017,7 @@
         <v/>
       </c>
       <c r="B770" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B770,THAM_SO!B771:C774,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B770,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C770" t="str">
@@ -25020,7 +25047,7 @@
         <v/>
       </c>
       <c r="B771" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B771,THAM_SO!B772:C775,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B771,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C771" t="str">
@@ -25050,7 +25077,7 @@
         <v/>
       </c>
       <c r="B772" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B772,THAM_SO!B773:C776,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B772,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C772" t="str">
@@ -25080,7 +25107,7 @@
         <v/>
       </c>
       <c r="B773" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B773,THAM_SO!B774:C777,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B773,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C773" t="str">
@@ -25110,7 +25137,7 @@
         <v/>
       </c>
       <c r="B774" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B774,THAM_SO!B775:C778,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B774,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C774" t="str">
@@ -25140,7 +25167,7 @@
         <v/>
       </c>
       <c r="B775" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B775,THAM_SO!B776:C779,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B775,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C775" t="str">
@@ -25170,7 +25197,7 @@
         <v/>
       </c>
       <c r="B776" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B776,THAM_SO!B777:C780,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B776,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C776" t="str">
@@ -25200,7 +25227,7 @@
         <v/>
       </c>
       <c r="B777" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B777,THAM_SO!B778:C781,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B777,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C777" t="str">
@@ -25230,7 +25257,7 @@
         <v/>
       </c>
       <c r="B778" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B778,THAM_SO!B779:C782,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B778,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C778" t="str">
@@ -25260,7 +25287,7 @@
         <v/>
       </c>
       <c r="B779" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B779,THAM_SO!B780:C783,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B779,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C779" t="str">
@@ -25290,7 +25317,7 @@
         <v/>
       </c>
       <c r="B780" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B780,THAM_SO!B781:C784,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B780,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C780" t="str">
@@ -25320,7 +25347,7 @@
         <v/>
       </c>
       <c r="B781" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B781,THAM_SO!B782:C785,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B781,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C781" t="str">
@@ -25350,7 +25377,7 @@
         <v/>
       </c>
       <c r="B782" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B782,THAM_SO!B783:C786,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B782,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C782" t="str">
@@ -25380,7 +25407,7 @@
         <v/>
       </c>
       <c r="B783" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B783,THAM_SO!B784:C787,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B783,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C783" t="str">
@@ -25410,7 +25437,7 @@
         <v/>
       </c>
       <c r="B784" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B784,THAM_SO!B785:C788,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B784,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C784" t="str">
@@ -25440,7 +25467,7 @@
         <v/>
       </c>
       <c r="B785" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B785,THAM_SO!B786:C789,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B785,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C785" t="str">
@@ -25470,7 +25497,7 @@
         <v/>
       </c>
       <c r="B786" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B786,THAM_SO!B787:C790,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B786,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C786" t="str">
@@ -25500,7 +25527,7 @@
         <v/>
       </c>
       <c r="B787" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B787,THAM_SO!B788:C791,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B787,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C787" t="str">
@@ -25530,7 +25557,7 @@
         <v/>
       </c>
       <c r="B788" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B788,THAM_SO!B789:C792,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B788,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C788" t="str">
@@ -25560,7 +25587,7 @@
         <v/>
       </c>
       <c r="B789" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B789,THAM_SO!B790:C793,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B789,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C789" t="str">
@@ -25590,7 +25617,7 @@
         <v/>
       </c>
       <c r="B790" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B790,THAM_SO!B791:C794,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B790,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C790" t="str">
@@ -25620,7 +25647,7 @@
         <v/>
       </c>
       <c r="B791" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B791,THAM_SO!B792:C795,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B791,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C791" t="str">
@@ -25650,7 +25677,7 @@
         <v/>
       </c>
       <c r="B792" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B792,THAM_SO!B793:C796,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B792,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C792" t="str">
@@ -25680,7 +25707,7 @@
         <v/>
       </c>
       <c r="B793" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B793,THAM_SO!B794:C797,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B793,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C793" t="str">
@@ -25710,7 +25737,7 @@
         <v/>
       </c>
       <c r="B794" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B794,THAM_SO!B795:C798,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B794,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C794" t="str">
@@ -25740,7 +25767,7 @@
         <v/>
       </c>
       <c r="B795" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B795,THAM_SO!B796:C799,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B795,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C795" t="str">
@@ -25770,7 +25797,7 @@
         <v/>
       </c>
       <c r="B796" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B796,THAM_SO!B797:C800,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B796,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C796" t="str">
@@ -25800,7 +25827,7 @@
         <v/>
       </c>
       <c r="B797" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B797,THAM_SO!B798:C801,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B797,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C797" t="str">
@@ -25830,7 +25857,7 @@
         <v/>
       </c>
       <c r="B798" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B798,THAM_SO!B799:C802,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B798,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C798" t="str">
@@ -25860,7 +25887,7 @@
         <v/>
       </c>
       <c r="B799" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B799,THAM_SO!B800:C803,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B799,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C799" t="str">
@@ -25890,7 +25917,7 @@
         <v/>
       </c>
       <c r="B800" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B800,THAM_SO!B801:C804,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B800,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C800" t="str">
@@ -25920,7 +25947,7 @@
         <v/>
       </c>
       <c r="B801" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B801,THAM_SO!B802:C805,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B801,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C801" t="str">
@@ -25950,7 +25977,7 @@
         <v/>
       </c>
       <c r="B802" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B802,THAM_SO!B803:C806,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B802,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C802" t="str">
@@ -25980,7 +26007,7 @@
         <v/>
       </c>
       <c r="B803" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B803,THAM_SO!B804:C807,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B803,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C803" t="str">
@@ -26010,7 +26037,7 @@
         <v/>
       </c>
       <c r="B804" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B804,THAM_SO!B805:C808,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B804,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C804" t="str">
@@ -26040,7 +26067,7 @@
         <v/>
       </c>
       <c r="B805" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B805,THAM_SO!B806:C809,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B805,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C805" t="str">
@@ -26070,7 +26097,7 @@
         <v/>
       </c>
       <c r="B806" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B806,THAM_SO!B807:C810,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B806,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C806" t="str">
@@ -26100,7 +26127,7 @@
         <v/>
       </c>
       <c r="B807" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B807,THAM_SO!B808:C811,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B807,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C807" t="str">
@@ -26130,7 +26157,7 @@
         <v/>
       </c>
       <c r="B808" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B808,THAM_SO!B809:C812,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B808,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C808" t="str">
@@ -26160,7 +26187,7 @@
         <v/>
       </c>
       <c r="B809" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B809,THAM_SO!B810:C813,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B809,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C809" t="str">
@@ -26190,7 +26217,7 @@
         <v/>
       </c>
       <c r="B810" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B810,THAM_SO!B811:C814,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B810,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C810" t="str">
@@ -26220,7 +26247,7 @@
         <v/>
       </c>
       <c r="B811" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B811,THAM_SO!B812:C815,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B811,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C811" t="str">
@@ -26250,7 +26277,7 @@
         <v/>
       </c>
       <c r="B812" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B812,THAM_SO!B813:C816,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B812,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C812" t="str">
@@ -26280,7 +26307,7 @@
         <v/>
       </c>
       <c r="B813" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B813,THAM_SO!B814:C817,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B813,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C813" t="str">
@@ -26310,7 +26337,7 @@
         <v/>
       </c>
       <c r="B814" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B814,THAM_SO!B815:C818,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B814,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C814" t="str">
@@ -26340,7 +26367,7 @@
         <v/>
       </c>
       <c r="B815" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B815,THAM_SO!B816:C819,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B815,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C815" t="str">
@@ -26370,7 +26397,7 @@
         <v/>
       </c>
       <c r="B816" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B816,THAM_SO!B817:C820,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B816,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C816" t="str">
@@ -26400,7 +26427,7 @@
         <v/>
       </c>
       <c r="B817" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B817,THAM_SO!B818:C821,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B817,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C817" t="str">
@@ -26430,7 +26457,7 @@
         <v/>
       </c>
       <c r="B818" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B818,THAM_SO!B819:C822,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B818,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C818" t="str">
@@ -26460,7 +26487,7 @@
         <v/>
       </c>
       <c r="B819" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B819,THAM_SO!B820:C823,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B819,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C819" t="str">
@@ -26490,7 +26517,7 @@
         <v/>
       </c>
       <c r="B820" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B820,THAM_SO!B821:C824,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B820,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C820" t="str">
@@ -26520,7 +26547,7 @@
         <v/>
       </c>
       <c r="B821" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B821,THAM_SO!B822:C825,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B821,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C821" t="str">
@@ -26550,7 +26577,7 @@
         <v/>
       </c>
       <c r="B822" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B822,THAM_SO!B823:C826,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B822,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C822" t="str">
@@ -26580,7 +26607,7 @@
         <v/>
       </c>
       <c r="B823" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B823,THAM_SO!B824:C827,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B823,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C823" t="str">
@@ -26610,7 +26637,7 @@
         <v/>
       </c>
       <c r="B824" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B824,THAM_SO!B825:C828,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B824,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C824" t="str">
@@ -26640,7 +26667,7 @@
         <v/>
       </c>
       <c r="B825" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B825,THAM_SO!B826:C829,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B825,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C825" t="str">
@@ -26670,7 +26697,7 @@
         <v/>
       </c>
       <c r="B826" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B826,THAM_SO!B827:C830,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B826,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C826" t="str">
@@ -26700,7 +26727,7 @@
         <v/>
       </c>
       <c r="B827" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B827,THAM_SO!B828:C831,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B827,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C827" t="str">
@@ -26730,7 +26757,7 @@
         <v/>
       </c>
       <c r="B828" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B828,THAM_SO!B829:C832,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B828,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C828" t="str">
@@ -26760,7 +26787,7 @@
         <v/>
       </c>
       <c r="B829" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B829,THAM_SO!B830:C833,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B829,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C829" t="str">
@@ -26790,7 +26817,7 @@
         <v/>
       </c>
       <c r="B830" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B830,THAM_SO!B831:C834,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B830,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C830" t="str">
@@ -26820,7 +26847,7 @@
         <v/>
       </c>
       <c r="B831" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B831,THAM_SO!B832:C835,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B831,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C831" t="str">
@@ -26850,7 +26877,7 @@
         <v/>
       </c>
       <c r="B832" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B832,THAM_SO!B833:C836,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B832,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C832" t="str">
@@ -26880,7 +26907,7 @@
         <v/>
       </c>
       <c r="B833" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B833,THAM_SO!B834:C837,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B833,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C833" t="str">
@@ -26910,7 +26937,7 @@
         <v/>
       </c>
       <c r="B834" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B834,THAM_SO!B835:C838,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B834,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C834" t="str">
@@ -26940,7 +26967,7 @@
         <v/>
       </c>
       <c r="B835" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B835,THAM_SO!B836:C839,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B835,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C835" t="str">
@@ -26970,7 +26997,7 @@
         <v/>
       </c>
       <c r="B836" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B836,THAM_SO!B837:C840,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B836,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C836" t="str">
@@ -27000,7 +27027,7 @@
         <v/>
       </c>
       <c r="B837" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B837,THAM_SO!B838:C841,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B837,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C837" t="str">
@@ -27030,7 +27057,7 @@
         <v/>
       </c>
       <c r="B838" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B838,THAM_SO!B839:C842,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B838,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C838" t="str">
@@ -27060,7 +27087,7 @@
         <v/>
       </c>
       <c r="B839" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B839,THAM_SO!B840:C843,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B839,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C839" t="str">
@@ -27090,7 +27117,7 @@
         <v/>
       </c>
       <c r="B840" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B840,THAM_SO!B841:C844,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B840,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C840" t="str">
@@ -27120,7 +27147,7 @@
         <v/>
       </c>
       <c r="B841" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B841,THAM_SO!B842:C845,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B841,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C841" t="str">
@@ -27150,7 +27177,7 @@
         <v/>
       </c>
       <c r="B842" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B842,THAM_SO!B843:C846,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B842,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C842" t="str">
@@ -27180,7 +27207,7 @@
         <v/>
       </c>
       <c r="B843" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B843,THAM_SO!B844:C847,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B843,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C843" t="str">
@@ -27210,7 +27237,7 @@
         <v/>
       </c>
       <c r="B844" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B844,THAM_SO!B845:C848,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B844,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C844" t="str">
@@ -27240,7 +27267,7 @@
         <v/>
       </c>
       <c r="B845" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B845,THAM_SO!B846:C849,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B845,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C845" t="str">
@@ -27270,7 +27297,7 @@
         <v/>
       </c>
       <c r="B846" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B846,THAM_SO!B847:C850,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B846,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C846" t="str">
@@ -27300,7 +27327,7 @@
         <v/>
       </c>
       <c r="B847" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B847,THAM_SO!B848:C851,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B847,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C847" t="str">
@@ -27330,7 +27357,7 @@
         <v/>
       </c>
       <c r="B848" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B848,THAM_SO!B849:C852,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B848,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C848" t="str">
@@ -27360,7 +27387,7 @@
         <v/>
       </c>
       <c r="B849" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B849,THAM_SO!B850:C853,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B849,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C849" t="str">
@@ -27390,7 +27417,7 @@
         <v/>
       </c>
       <c r="B850" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B850,THAM_SO!B851:C854,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B850,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C850" t="str">
@@ -27420,7 +27447,7 @@
         <v/>
       </c>
       <c r="B851" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B851,THAM_SO!B852:C855,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B851,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C851" t="str">
@@ -27450,7 +27477,7 @@
         <v/>
       </c>
       <c r="B852" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B852,THAM_SO!B853:C856,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B852,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C852" t="str">
@@ -27480,7 +27507,7 @@
         <v/>
       </c>
       <c r="B853" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B853,THAM_SO!B854:C857,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B853,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C853" t="str">
@@ -27510,7 +27537,7 @@
         <v/>
       </c>
       <c r="B854" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B854,THAM_SO!B855:C858,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B854,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C854" t="str">
@@ -27540,7 +27567,7 @@
         <v/>
       </c>
       <c r="B855" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B855,THAM_SO!B856:C859,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B855,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C855" t="str">
@@ -27570,7 +27597,7 @@
         <v/>
       </c>
       <c r="B856" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B856,THAM_SO!B857:C860,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B856,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C856" t="str">
@@ -27600,7 +27627,7 @@
         <v/>
       </c>
       <c r="B857" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B857,THAM_SO!B858:C861,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B857,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C857" t="str">
@@ -27630,7 +27657,7 @@
         <v/>
       </c>
       <c r="B858" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B858,THAM_SO!B859:C862,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B858,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C858" t="str">
@@ -27660,7 +27687,7 @@
         <v/>
       </c>
       <c r="B859" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B859,THAM_SO!B860:C863,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B859,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C859" t="str">
@@ -27690,7 +27717,7 @@
         <v/>
       </c>
       <c r="B860" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B860,THAM_SO!B861:C864,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B860,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C860" t="str">
@@ -27720,7 +27747,7 @@
         <v/>
       </c>
       <c r="B861" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B861,THAM_SO!B862:C865,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B861,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C861" t="str">
@@ -27750,7 +27777,7 @@
         <v/>
       </c>
       <c r="B862" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B862,THAM_SO!B863:C866,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B862,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C862" t="str">
@@ -27780,7 +27807,7 @@
         <v/>
       </c>
       <c r="B863" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B863,THAM_SO!B864:C867,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B863,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C863" t="str">
@@ -27810,7 +27837,7 @@
         <v/>
       </c>
       <c r="B864" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B864,THAM_SO!B865:C868,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B864,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C864" t="str">
@@ -27840,7 +27867,7 @@
         <v/>
       </c>
       <c r="B865" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B865,THAM_SO!B866:C869,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B865,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C865" t="str">
@@ -27870,7 +27897,7 @@
         <v/>
       </c>
       <c r="B866" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B866,THAM_SO!B867:C870,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B866,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C866" t="str">
@@ -27900,7 +27927,7 @@
         <v/>
       </c>
       <c r="B867" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B867,THAM_SO!B868:C871,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B867,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C867" t="str">
@@ -27930,7 +27957,7 @@
         <v/>
       </c>
       <c r="B868" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B868,THAM_SO!B869:C872,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B868,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C868" t="str">
@@ -27960,7 +27987,7 @@
         <v/>
       </c>
       <c r="B869" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B869,THAM_SO!B870:C873,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B869,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C869" t="str">
@@ -27990,7 +28017,7 @@
         <v/>
       </c>
       <c r="B870" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B870,THAM_SO!B871:C874,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B870,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C870" t="str">
@@ -28020,7 +28047,7 @@
         <v/>
       </c>
       <c r="B871" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B871,THAM_SO!B872:C875,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B871,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C871" t="str">
@@ -28050,7 +28077,7 @@
         <v/>
       </c>
       <c r="B872" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B872,THAM_SO!B873:C876,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B872,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C872" t="str">
@@ -28080,7 +28107,7 @@
         <v/>
       </c>
       <c r="B873" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B873,THAM_SO!B874:C877,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B873,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C873" t="str">
@@ -28110,7 +28137,7 @@
         <v/>
       </c>
       <c r="B874" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B874,THAM_SO!B875:C878,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B874,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C874" t="str">
@@ -28140,7 +28167,7 @@
         <v/>
       </c>
       <c r="B875" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B875,THAM_SO!B876:C879,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B875,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C875" t="str">
@@ -28170,7 +28197,7 @@
         <v/>
       </c>
       <c r="B876" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B876,THAM_SO!B877:C880,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B876,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C876" t="str">
@@ -28200,7 +28227,7 @@
         <v/>
       </c>
       <c r="B877" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B877,THAM_SO!B878:C881,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B877,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C877" t="str">
@@ -28230,7 +28257,7 @@
         <v/>
       </c>
       <c r="B878" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B878,THAM_SO!B879:C882,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B878,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C878" t="str">
@@ -28260,7 +28287,7 @@
         <v/>
       </c>
       <c r="B879" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B879,THAM_SO!B880:C883,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B879,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C879" t="str">
@@ -28290,7 +28317,7 @@
         <v/>
       </c>
       <c r="B880" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B880,THAM_SO!B881:C884,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B880,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C880" t="str">
@@ -28320,7 +28347,7 @@
         <v/>
       </c>
       <c r="B881" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B881,THAM_SO!B882:C885,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B881,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C881" t="str">
@@ -28350,7 +28377,7 @@
         <v/>
       </c>
       <c r="B882" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B882,THAM_SO!B883:C886,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B882,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C882" t="str">
@@ -28380,7 +28407,7 @@
         <v/>
       </c>
       <c r="B883" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B883,THAM_SO!B884:C887,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B883,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C883" t="str">
@@ -28410,7 +28437,7 @@
         <v/>
       </c>
       <c r="B884" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B884,THAM_SO!B885:C888,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B884,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C884" t="str">
@@ -28440,7 +28467,7 @@
         <v/>
       </c>
       <c r="B885" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B885,THAM_SO!B886:C889,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B885,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C885" t="str">
@@ -28470,7 +28497,7 @@
         <v/>
       </c>
       <c r="B886" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B886,THAM_SO!B887:C890,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B886,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C886" t="str">
@@ -28500,7 +28527,7 @@
         <v/>
       </c>
       <c r="B887" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B887,THAM_SO!B888:C891,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B887,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C887" t="str">
@@ -28530,7 +28557,7 @@
         <v/>
       </c>
       <c r="B888" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B888,THAM_SO!B889:C892,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B888,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C888" t="str">
@@ -28560,7 +28587,7 @@
         <v/>
       </c>
       <c r="B889" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B889,THAM_SO!B890:C893,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B889,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C889" t="str">
@@ -28590,7 +28617,7 @@
         <v/>
       </c>
       <c r="B890" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B890,THAM_SO!B891:C894,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B890,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C890" t="str">
@@ -28620,7 +28647,7 @@
         <v/>
       </c>
       <c r="B891" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B891,THAM_SO!B892:C895,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B891,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C891" t="str">
@@ -28650,7 +28677,7 @@
         <v/>
       </c>
       <c r="B892" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B892,THAM_SO!B893:C896,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B892,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C892" t="str">
@@ -28680,7 +28707,7 @@
         <v/>
       </c>
       <c r="B893" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B893,THAM_SO!B894:C897,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B893,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C893" t="str">
@@ -28710,7 +28737,7 @@
         <v/>
       </c>
       <c r="B894" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B894,THAM_SO!B895:C898,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B894,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C894" t="str">
@@ -28740,7 +28767,7 @@
         <v/>
       </c>
       <c r="B895" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B895,THAM_SO!B896:C899,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B895,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C895" t="str">
@@ -28770,7 +28797,7 @@
         <v/>
       </c>
       <c r="B896" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B896,THAM_SO!B897:C900,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B896,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C896" t="str">
@@ -28800,7 +28827,7 @@
         <v/>
       </c>
       <c r="B897" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B897,THAM_SO!B898:C901,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B897,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C897" t="str">
@@ -28830,7 +28857,7 @@
         <v/>
       </c>
       <c r="B898" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B898,THAM_SO!B899:C902,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B898,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C898" t="str">
@@ -28860,7 +28887,7 @@
         <v/>
       </c>
       <c r="B899" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B899,THAM_SO!B900:C903,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B899,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C899" t="str">
@@ -28890,7 +28917,7 @@
         <v/>
       </c>
       <c r="B900" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B900,THAM_SO!B901:C904,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B900,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C900" t="str">
@@ -28920,7 +28947,7 @@
         <v/>
       </c>
       <c r="B901" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B901,THAM_SO!B902:C905,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B901,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C901" t="str">
@@ -28950,7 +28977,7 @@
         <v/>
       </c>
       <c r="B902" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B902,THAM_SO!B903:C906,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B902,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C902" t="str">
@@ -28980,7 +29007,7 @@
         <v/>
       </c>
       <c r="B903" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B903,THAM_SO!B904:C907,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B903,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C903" t="str">
@@ -29010,7 +29037,7 @@
         <v/>
       </c>
       <c r="B904" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B904,THAM_SO!B905:C908,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B904,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C904" t="str">
@@ -29040,7 +29067,7 @@
         <v/>
       </c>
       <c r="B905" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B905,THAM_SO!B906:C909,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B905,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C905" t="str">
@@ -29070,7 +29097,7 @@
         <v/>
       </c>
       <c r="B906" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B906,THAM_SO!B907:C910,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B906,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C906" t="str">
@@ -29100,7 +29127,7 @@
         <v/>
       </c>
       <c r="B907" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B907,THAM_SO!B908:C911,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B907,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C907" t="str">
@@ -29130,7 +29157,7 @@
         <v/>
       </c>
       <c r="B908" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B908,THAM_SO!B909:C912,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B908,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C908" t="str">
@@ -29160,7 +29187,7 @@
         <v/>
       </c>
       <c r="B909" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B909,THAM_SO!B910:C913,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B909,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C909" t="str">
@@ -29190,7 +29217,7 @@
         <v/>
       </c>
       <c r="B910" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B910,THAM_SO!B911:C914,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B910,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C910" t="str">
@@ -29220,7 +29247,7 @@
         <v/>
       </c>
       <c r="B911" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B911,THAM_SO!B912:C915,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B911,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C911" t="str">
@@ -29250,7 +29277,7 @@
         <v/>
       </c>
       <c r="B912" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B912,THAM_SO!B913:C916,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B912,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C912" t="str">
@@ -29280,7 +29307,7 @@
         <v/>
       </c>
       <c r="B913" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B913,THAM_SO!B914:C917,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B913,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C913" t="str">
@@ -29310,7 +29337,7 @@
         <v/>
       </c>
       <c r="B914" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B914,THAM_SO!B915:C918,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B914,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C914" t="str">
@@ -29340,7 +29367,7 @@
         <v/>
       </c>
       <c r="B915" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B915,THAM_SO!B916:C919,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B915,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C915" t="str">
@@ -29370,7 +29397,7 @@
         <v/>
       </c>
       <c r="B916" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B916,THAM_SO!B917:C920,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B916,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C916" t="str">
@@ -29400,7 +29427,7 @@
         <v/>
       </c>
       <c r="B917" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B917,THAM_SO!B918:C921,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B917,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C917" t="str">
@@ -29430,7 +29457,7 @@
         <v/>
       </c>
       <c r="B918" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B918,THAM_SO!B919:C922,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B918,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C918" t="str">
@@ -29460,7 +29487,7 @@
         <v/>
       </c>
       <c r="B919" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B919,THAM_SO!B920:C923,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B919,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C919" t="str">
@@ -29490,7 +29517,7 @@
         <v/>
       </c>
       <c r="B920" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B920,THAM_SO!B921:C924,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B920,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C920" t="str">
@@ -29520,7 +29547,7 @@
         <v/>
       </c>
       <c r="B921" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B921,THAM_SO!B922:C925,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B921,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C921" t="str">
@@ -29550,7 +29577,7 @@
         <v/>
       </c>
       <c r="B922" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B922,THAM_SO!B923:C926,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B922,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C922" t="str">
@@ -29580,7 +29607,7 @@
         <v/>
       </c>
       <c r="B923" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B923,THAM_SO!B924:C927,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B923,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C923" t="str">
@@ -29610,7 +29637,7 @@
         <v/>
       </c>
       <c r="B924" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B924,THAM_SO!B925:C928,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B924,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C924" t="str">
@@ -29640,7 +29667,7 @@
         <v/>
       </c>
       <c r="B925" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B925,THAM_SO!B926:C929,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B925,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C925" t="str">
@@ -29670,7 +29697,7 @@
         <v/>
       </c>
       <c r="B926" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B926,THAM_SO!B927:C930,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B926,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C926" t="str">
@@ -29700,7 +29727,7 @@
         <v/>
       </c>
       <c r="B927" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B927,THAM_SO!B928:C931,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B927,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C927" t="str">
@@ -29730,7 +29757,7 @@
         <v/>
       </c>
       <c r="B928" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B928,THAM_SO!B929:C932,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B928,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C928" t="str">
@@ -29760,7 +29787,7 @@
         <v/>
       </c>
       <c r="B929" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B929,THAM_SO!B930:C933,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B929,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C929" t="str">
@@ -29790,7 +29817,7 @@
         <v/>
       </c>
       <c r="B930" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B930,THAM_SO!B931:C934,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B930,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C930" t="str">
@@ -29820,7 +29847,7 @@
         <v/>
       </c>
       <c r="B931" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B931,THAM_SO!B932:C935,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B931,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C931" t="str">
@@ -29850,7 +29877,7 @@
         <v/>
       </c>
       <c r="B932" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B932,THAM_SO!B933:C936,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B932,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C932" t="str">
@@ -29880,7 +29907,7 @@
         <v/>
       </c>
       <c r="B933" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B933,THAM_SO!B934:C937,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B933,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C933" t="str">
@@ -29910,7 +29937,7 @@
         <v/>
       </c>
       <c r="B934" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B934,THAM_SO!B935:C938,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B934,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C934" t="str">
@@ -29940,7 +29967,7 @@
         <v/>
       </c>
       <c r="B935" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B935,THAM_SO!B936:C939,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B935,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C935" t="str">
@@ -29970,7 +29997,7 @@
         <v/>
       </c>
       <c r="B936" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B936,THAM_SO!B937:C940,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B936,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C936" t="str">
@@ -30000,7 +30027,7 @@
         <v/>
       </c>
       <c r="B937" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B937,THAM_SO!B938:C941,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B937,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C937" t="str">
@@ -30030,7 +30057,7 @@
         <v/>
       </c>
       <c r="B938" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B938,THAM_SO!B939:C942,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B938,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C938" t="str">
@@ -30060,7 +30087,7 @@
         <v/>
       </c>
       <c r="B939" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B939,THAM_SO!B940:C943,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B939,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C939" t="str">
@@ -30090,7 +30117,7 @@
         <v/>
       </c>
       <c r="B940" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B940,THAM_SO!B941:C944,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B940,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C940" t="str">
@@ -30120,7 +30147,7 @@
         <v/>
       </c>
       <c r="B941" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B941,THAM_SO!B942:C945,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B941,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C941" t="str">
@@ -30150,7 +30177,7 @@
         <v/>
       </c>
       <c r="B942" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B942,THAM_SO!B943:C946,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B942,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C942" t="str">
@@ -30180,7 +30207,7 @@
         <v/>
       </c>
       <c r="B943" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B943,THAM_SO!B944:C947,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B943,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C943" t="str">
@@ -30210,7 +30237,7 @@
         <v/>
       </c>
       <c r="B944" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B944,THAM_SO!B945:C948,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B944,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C944" t="str">
@@ -30240,7 +30267,7 @@
         <v/>
       </c>
       <c r="B945" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B945,THAM_SO!B946:C949,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B945,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C945" t="str">
@@ -30270,7 +30297,7 @@
         <v/>
       </c>
       <c r="B946" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B946,THAM_SO!B947:C950,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B946,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C946" t="str">
@@ -30300,7 +30327,7 @@
         <v/>
       </c>
       <c r="B947" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B947,THAM_SO!B948:C951,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B947,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C947" t="str">
@@ -30330,7 +30357,7 @@
         <v/>
       </c>
       <c r="B948" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B948,THAM_SO!B949:C952,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B948,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C948" t="str">
@@ -30360,7 +30387,7 @@
         <v/>
       </c>
       <c r="B949" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B949,THAM_SO!B950:C953,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B949,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C949" t="str">
@@ -30390,7 +30417,7 @@
         <v/>
       </c>
       <c r="B950" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B950,THAM_SO!B951:C954,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B950,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C950" t="str">
@@ -30420,7 +30447,7 @@
         <v/>
       </c>
       <c r="B951" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B951,THAM_SO!B952:C955,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B951,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C951" t="str">
@@ -30450,7 +30477,7 @@
         <v/>
       </c>
       <c r="B952" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B952,THAM_SO!B953:C956,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B952,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C952" t="str">
@@ -30480,7 +30507,7 @@
         <v/>
       </c>
       <c r="B953" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B953,THAM_SO!B954:C957,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B953,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C953" t="str">
@@ -30510,7 +30537,7 @@
         <v/>
       </c>
       <c r="B954" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B954,THAM_SO!B955:C958,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B954,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C954" t="str">
@@ -30540,7 +30567,7 @@
         <v/>
       </c>
       <c r="B955" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B955,THAM_SO!B956:C959,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B955,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C955" t="str">
@@ -30570,7 +30597,7 @@
         <v/>
       </c>
       <c r="B956" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B956,THAM_SO!B957:C960,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B956,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C956" t="str">
@@ -30600,7 +30627,7 @@
         <v/>
       </c>
       <c r="B957" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B957,THAM_SO!B958:C961,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B957,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C957" t="str">
@@ -30630,7 +30657,7 @@
         <v/>
       </c>
       <c r="B958" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B958,THAM_SO!B959:C962,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B958,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C958" t="str">
@@ -30660,7 +30687,7 @@
         <v/>
       </c>
       <c r="B959" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B959,THAM_SO!B960:C963,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B959,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C959" t="str">
@@ -30690,7 +30717,7 @@
         <v/>
       </c>
       <c r="B960" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B960,THAM_SO!B961:C964,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B960,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C960" t="str">
@@ -30720,7 +30747,7 @@
         <v/>
       </c>
       <c r="B961" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B961,THAM_SO!B962:C965,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B961,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C961" t="str">
@@ -30750,7 +30777,7 @@
         <v/>
       </c>
       <c r="B962" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B962,THAM_SO!B963:C966,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B962,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C962" t="str">
@@ -30780,7 +30807,7 @@
         <v/>
       </c>
       <c r="B963" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B963,THAM_SO!B964:C967,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B963,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C963" t="str">
@@ -30810,7 +30837,7 @@
         <v/>
       </c>
       <c r="B964" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B964,THAM_SO!B965:C968,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B964,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C964" t="str">
@@ -30840,7 +30867,7 @@
         <v/>
       </c>
       <c r="B965" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B965,THAM_SO!B966:C969,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B965,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C965" t="str">
@@ -30870,7 +30897,7 @@
         <v/>
       </c>
       <c r="B966" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B966,THAM_SO!B967:C970,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B966,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C966" t="str">
@@ -30900,7 +30927,7 @@
         <v/>
       </c>
       <c r="B967" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B967,THAM_SO!B968:C971,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B967,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C967" t="str">
@@ -30930,7 +30957,7 @@
         <v/>
       </c>
       <c r="B968" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B968,THAM_SO!B969:C972,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B968,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C968" t="str">
@@ -30960,7 +30987,7 @@
         <v/>
       </c>
       <c r="B969" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B969,THAM_SO!B970:C973,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B969,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C969" t="str">
@@ -30990,7 +31017,7 @@
         <v/>
       </c>
       <c r="B970" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B970,THAM_SO!B971:C974,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B970,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C970" t="str">
@@ -31020,7 +31047,7 @@
         <v/>
       </c>
       <c r="B971" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B971,THAM_SO!B972:C975,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B971,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C971" t="str">
@@ -31050,7 +31077,7 @@
         <v/>
       </c>
       <c r="B972" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B972,THAM_SO!B973:C976,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B972,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C972" t="str">
@@ -31080,7 +31107,7 @@
         <v/>
       </c>
       <c r="B973" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B973,THAM_SO!B974:C977,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B973,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C973" t="str">
@@ -31110,7 +31137,7 @@
         <v/>
       </c>
       <c r="B974" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B974,THAM_SO!B975:C978,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B974,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C974" t="str">
@@ -31140,7 +31167,7 @@
         <v/>
       </c>
       <c r="B975" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B975,THAM_SO!B976:C979,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B975,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C975" t="str">
@@ -31170,7 +31197,7 @@
         <v/>
       </c>
       <c r="B976" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B976,THAM_SO!B977:C980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B976,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C976" t="str">
@@ -31200,7 +31227,7 @@
         <v/>
       </c>
       <c r="B977" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B977,THAM_SO!B978:C981,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B977,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C977" t="str">
@@ -31230,7 +31257,7 @@
         <v/>
       </c>
       <c r="B978" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B978,THAM_SO!B979:C982,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B978,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C978" t="str">
@@ -31260,7 +31287,7 @@
         <v/>
       </c>
       <c r="B979" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B979,THAM_SO!B980:C983,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B979,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C979" t="str">
@@ -31290,7 +31317,7 @@
         <v/>
       </c>
       <c r="B980" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B980,THAM_SO!B981:C984,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B980,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C980" t="str">
@@ -31320,7 +31347,7 @@
         <v/>
       </c>
       <c r="B981" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B981,THAM_SO!B982:C985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B981,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C981" t="str">
@@ -31350,7 +31377,7 @@
         <v/>
       </c>
       <c r="B982" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B982,THAM_SO!B983:C986,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B982,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C982" t="str">
@@ -31380,7 +31407,7 @@
         <v/>
       </c>
       <c r="B983" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B983,THAM_SO!B984:C987,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B983,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C983" t="str">
@@ -31410,7 +31437,7 @@
         <v/>
       </c>
       <c r="B984" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B984,THAM_SO!B985:C988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B984,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C984" t="str">
@@ -31440,7 +31467,7 @@
         <v/>
       </c>
       <c r="B985" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B985,THAM_SO!B986:C989,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B985,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C985" t="str">
@@ -31470,7 +31497,7 @@
         <v/>
       </c>
       <c r="B986" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B986,THAM_SO!B987:C990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B986,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C986" t="str">
@@ -31500,7 +31527,7 @@
         <v/>
       </c>
       <c r="B987" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B987,THAM_SO!B988:C991,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B987,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C987" t="str">
@@ -31530,7 +31557,7 @@
         <v/>
       </c>
       <c r="B988" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B988,THAM_SO!B989:C992,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B988,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C988" t="str">
@@ -31560,7 +31587,7 @@
         <v/>
       </c>
       <c r="B989" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B989,THAM_SO!B990:C993,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B989,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C989" t="str">
@@ -31590,7 +31617,7 @@
         <v/>
       </c>
       <c r="B990" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B990,THAM_SO!B991:C994,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B990,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C990" t="str">
@@ -31620,7 +31647,7 @@
         <v/>
       </c>
       <c r="B991" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B991,THAM_SO!B992:C995,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B991,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C991" t="str">
@@ -31650,7 +31677,7 @@
         <v/>
       </c>
       <c r="B992" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B992,THAM_SO!B993:C996,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B992,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C992" t="str">
@@ -31680,7 +31707,7 @@
         <v/>
       </c>
       <c r="B993" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B993,THAM_SO!B994:C997,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B993,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C993" t="str">
@@ -31710,7 +31737,7 @@
         <v/>
       </c>
       <c r="B994" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B994,THAM_SO!B995:C998,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B994,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C994" t="str">
@@ -31740,7 +31767,7 @@
         <v/>
       </c>
       <c r="B995" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B995,THAM_SO!B996:C999,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B995,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C995" t="str">
@@ -31770,7 +31797,7 @@
         <v/>
       </c>
       <c r="B996" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B996,THAM_SO!B997:C1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B996,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C996" t="str">
@@ -31800,7 +31827,7 @@
         <v/>
       </c>
       <c r="B997" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B997,THAM_SO!B998:C1001,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B997,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C997" t="str">
@@ -31830,7 +31857,7 @@
         <v/>
       </c>
       <c r="B998" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B998,THAM_SO!B999:C1002,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B998,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C998" t="str">
@@ -31860,7 +31887,7 @@
         <v/>
       </c>
       <c r="B999" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B999,THAM_SO!B1000:C1003,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B999,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C999" t="str">
@@ -31890,7 +31917,7 @@
         <v/>
       </c>
       <c r="B1000" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B1000,THAM_SO!B1001:C1004,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B1000,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C1000" t="str">
@@ -31920,7 +31947,7 @@
         <v/>
       </c>
       <c r="B1001" t="str">
-        <f>IFERROR(VLOOKUP(NHAP_LIEU!B1001,THAM_SO!B1002:C1005,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(NHAP_LIEU!B1001,THAM_SO!$B$3:$C$6,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="C1001" t="str">

--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/CONG_TAC.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/CONG_TAC.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
